--- a/4.Teste/EvT - Roteiro de Teste.xlsx
+++ b/4.Teste/EvT - Roteiro de Teste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f3bac6445a88293/Atividades IFSP/EvT/EvT---Eventos-Tech/4.Teste/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834B6D63-2800-40CE-B2D5-332BDA6901C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="913" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="390" yWindow="600" windowWidth="10200" windowHeight="7630" tabRatio="913" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -2754,8 +2754,8 @@
   <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3169,8 +3169,8 @@
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <pane ySplit="7" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3580,8 +3580,8 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4061,9 +4061,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4451,9 +4451,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5017,9 +5017,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5288,9 +5288,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/4.Teste/EvT - Roteiro de Teste.xlsx
+++ b/4.Teste/EvT - Roteiro de Teste.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f3bac6445a88293/Atividades IFSP/EvT/EvT---Eventos-Tech/4.Teste/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834B6D63-2800-40CE-B2D5-332BDA6901C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="390" yWindow="600" windowWidth="10200" windowHeight="7630" tabRatio="913" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="913"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -22,13 +21,14 @@
     <sheet name="UCS5" sheetId="36" r:id="rId7"/>
     <sheet name="UCS6" sheetId="37" r:id="rId8"/>
     <sheet name="UCS7" sheetId="38" r:id="rId9"/>
+    <sheet name="UCS8" sheetId="39" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="___xlfn_IFERROR">NA()</definedName>
     <definedName name="__xlfn_IFERROR">NA()</definedName>
     <definedName name="combo_SimNao">AUX!$A$2:$A$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="468">
   <si>
     <t>Caso de Uso</t>
   </si>
@@ -156,12 +156,6 @@
     <t>O usuário deve ter acesso à plataforma e não estar autenticado.</t>
   </si>
   <si>
-    <t>Dado que o usuário não está autenticado
-Quando o usuário cadastra uma conta com seu e-mail e senha
-Então sua conta deverá ser criada
-E deve aparecer a mensagem "Conta criada com sucesso"</t>
-  </si>
-  <si>
     <t>Conta do usuário deve ser criada com sucesso</t>
   </si>
   <si>
@@ -178,11 +172,6 @@
   </si>
   <si>
     <t>Cadastrar conta com e-mail em formato inválido</t>
-  </si>
-  <si>
-    <t>Dado que o usuário não está autenticado
-Quando o usuário cadastra uma conta com e-mail e senha já cadastrados
-Então deve aparecer a mensagem "Email já cadastrado"</t>
   </si>
   <si>
     <t>Usuário não deve ser capaz de criar conta com e-mail já cadastrado</t>
@@ -196,33 +185,13 @@
     <t>Usuário não deve ser capaz de criar conta com senha menor que 6 caracteres</t>
   </si>
   <si>
-    <t>Dado que o usuário não está autenticado
-Quando o usuário cadastra uma conta sem preencher o campo Nome
-Então deve aparecer a mensagem "Preencha todos os campos obrigatórios"</t>
-  </si>
-  <si>
     <t>Usuário não deve ser capaz de criar conta sem preencher o campo de nome</t>
   </si>
   <si>
-    <t>Dado que o usuário não está autenticado
-Quando o usuário cadastra uma conta sem preencher o campo E-mail
-Então deve aparecer a mensagem "Preencha todos os campos obrigatórios"</t>
-  </si>
-  <si>
     <t>Usuário não deve ser capaz de criar conta sem preencher o campo de e-mail</t>
   </si>
   <si>
-    <t>Dado que o usuário não está autenticado
-Quando o usuário cadastra uma conta sem preencher o campo senha
-Então deve aparecer a mensagem "Preencha todos os campos obrigatórios"</t>
-  </si>
-  <si>
     <t>Usuário não deve ser capaz de criar conta sem preencher o campo de senha</t>
-  </si>
-  <si>
-    <t>Dado que o usuário não está autenticado
-Quando o usuário cadastra uma conta com e-mail inválido
-Então deve aparecer a mensagem "Email inválido"</t>
   </si>
   <si>
     <t>Usuário não deve ser capaz de criar conta com e-mail inválido</t>
@@ -289,33 +258,8 @@
     <t>Usuário não deve ser capaz de acessar a conta</t>
   </si>
   <si>
-    <t>Dado que o usuário está na página de login	
-Quando o usuário insere um e-mail inválido e uma senha válida	
-Então o sistema deve exibir a mensagem "E-mail incorreto."</t>
-  </si>
-  <si>
-    <t>Dado que o usuário está na página de login	
-Quando o usuário insere um e-mail válido e uma senha inválida	
-Então o sistema deve exibir a mensagem "Senha incorreta."</t>
-  </si>
-  <si>
-    <t>Dado que o usuário está na página de login	
-Quando o usuário insere um e-mail inválido e uma senha inválida	
-Então o sistema deve exibir a mensagem "E-mail e senha incorretos."</t>
-  </si>
-  <si>
-    <t>Dado que o usuário está na página de login	
-Quando o usuário deixa os campos de e-mail e senha vazios	
-Então o sistema deve exibir a mensagem "Os campos são obrigatórios."</t>
-  </si>
-  <si>
     <t>E-mail: ""
 Senha: ""</t>
-  </si>
-  <si>
-    <t>Dado que o usuário está na página de login	
-Quando o usuário insere um e-mail não registrado e uma senha válida	
-Então o sistema deve exibir a mensagem "E-mail não registrado."</t>
   </si>
   <si>
     <t>E-mail: ron@email.com
@@ -351,34 +295,13 @@
     <t>Validação da Senha Mínima</t>
   </si>
   <si>
-    <t>Edição de Dados de Funcionário</t>
-  </si>
-  <si>
     <t>Exclusão de Funcionário Existente</t>
   </si>
   <si>
-    <t>Exclusão de Funcionário Inexistente</t>
-  </si>
-  <si>
     <t>Funcionário deve ser incluído com sucesso</t>
   </si>
   <si>
     <t>Sistema deve reconhecer o CPF já cadastrado</t>
-  </si>
-  <si>
-    <t>Dado que o gerente está logado no sistema	
-Quando o gerente cadastra um funcionário com dados válidos	
-Então deve aparecer a mensagem "Funcionário incluído com sucesso"</t>
-  </si>
-  <si>
-    <t>Dado que o gerente está logado no sistema	
-Quando o gerente tenta cadastrar um funcionário com um CPF já cadastrado	
-Então deve aparecer a mensagem "CPF já cadastrado"</t>
-  </si>
-  <si>
-    <t>Dado que o gerente está logado no sistema	
-Quando o gerente tenta cadastrar um funcionário com um formato de e-mail inválido	
-Então deve aparecer a mensagem "Formato de email inválido"</t>
   </si>
   <si>
     <t xml:space="preserve">Dado que o gerente está logado no sistema	
@@ -387,11 +310,6 @@
   </si>
   <si>
     <t>Dado que o gerente está logado no sistema	
-Quando o gerente edita os dados de um funcionário existente	
-Então deve aparecer a mensagem "Dados atualizados com sucesso"</t>
-  </si>
-  <si>
-    <t>Dado que o gerente está logado no sistema	
 Quando o gerente tenta excluir um funcionário existente	
 Então deve aparecer uma mensagem de confirmação e a exclusão do registro</t>
   </si>
@@ -399,9 +317,6 @@
     <t>Seleção de funcionário cadastrado e clicar no botão excluir</t>
   </si>
   <si>
-    <t>Seleção de funcionário inexistente e clica no botão excluir</t>
-  </si>
-  <si>
     <t>Gerente não deve ser capaz de cadastrar funcionário com e-mail inválido</t>
   </si>
   <si>
@@ -426,70 +341,30 @@
     <t>Validação de Campo de Email Obrigatório</t>
   </si>
   <si>
-    <t>Dado que o gerente está logado no sistema	
-Quando o gerente tenta cadastrar um funcionário com campo de e-mail obrigatório em branco	
-Então deve aparecer a mensagem "Preencha todos os campos obrigatórios"</t>
-  </si>
-  <si>
-    <t>Dado que o gerente está logado no sistema	
-Quando o gerente tenta cadastrar um funcionário com campo de nome obrigatório em branco	
-Então deve aparecer a mensagem "Preencha todos os campos obrigatórios"</t>
-  </si>
-  <si>
     <t>Validação de Campo de CPF Obrigatório</t>
   </si>
   <si>
-    <t>Dado que o gerente está logado no sistema	
-Quando o gerente tenta cadastrar um funcionário com campo de CPF obrigatório em branco	
-Então deve aparecer a mensagem "Preencha todos os campos obrigatórios"</t>
-  </si>
-  <si>
     <t>Validação de Campo de cargo Obrigatório</t>
   </si>
   <si>
-    <t>Dado que o gerente está logado no sistema	
-Quando o gerente tenta cadastrar um funcionário com campo de cargo obrigatório em branco	
-Então deve aparecer a mensagem "Preencha todos os campos obrigatórios"</t>
-  </si>
-  <si>
     <t>Validação de Campo de departamento Obrigatório</t>
   </si>
   <si>
-    <t>Dado que o gerente está logado no sistema	
-Quando o gerente tenta cadastrar um funcionário com campo de departamento obrigatório em branco	
-Então deve aparecer a mensagem "Preencha todos os campos obrigatórios"</t>
-  </si>
-  <si>
     <t>Validação de Campo de senha Obrigatório</t>
   </si>
   <si>
-    <t>Dado que o gerente está logado no sistema	
-Quando o gerente tenta cadastrar um funcionário com campo de senha obrigatório em branco	
-Então deve aparecer a mensagem "Preencha todos os campos obrigatórios"</t>
-  </si>
-  <si>
     <t>Manter local</t>
   </si>
   <si>
     <t>Criação de Local com Dados Válidos</t>
   </si>
   <si>
-    <t>Dado que o funcionário está logado no sistema.
-Quando o funcionário cadastra um local com dados válidos.
-Então o local deve ser criado com sucesso e a API retorna status 201 com os dados do local.</t>
-  </si>
-  <si>
     <t>Local deve ser criado com sucesso e a API retorna status 201 com os dados do local</t>
   </si>
   <si>
     <t>Criação de Local com Nome Vazio</t>
   </si>
   <si>
-    <t>Dado que o funcionário está logado no sistema.
-Quando o funcionário tenta cadastrar um local com nome vazio.
-Então a API retorna mensagem de erro informando que o nome é obrigatório e status 400.</t>
-  </si>
-  <si>
     <t>A API deve retornar mensagem de erro informando que o nome é obrigatório e status 400</t>
   </si>
   <si>
@@ -499,44 +374,18 @@
     <t>Criação de Local com Capacidade Inválida</t>
   </si>
   <si>
-    <t>Dado que o funcionário está logado no sistema.
-Quando o funcionário tenta cadastrar um local com capacidade inválida.
-Então a API retorna mensagem de erro informando que a capacidade deve ser um número positivo e status 400</t>
-  </si>
-  <si>
     <t>A API deve retornar mensagem de erro informando que a capacidade deve ser um número positivo e status 400</t>
   </si>
   <si>
     <t>Criação de Local Duplicado</t>
   </si>
   <si>
-    <t>Dado que o funcionário está logado no sistema.
-Quando o funcionário tenta cadastrar um local que já existe.
-Então a API retorna mensagem de erro informando que o local já existe e status 409</t>
-  </si>
-  <si>
     <t>A API deve retornar mensagem de erro informando que o local já existe e status 409</t>
   </si>
   <si>
-    <t>Edição de Local</t>
-  </si>
-  <si>
-    <t>Dado que o funcionário está logado no sistema.
-Quando o funcionário edita os dados de um local existente.
-Então o local deve ser editado com sucesso e a API retorna status 201 com os dados do local editado</t>
-  </si>
-  <si>
     <t>O local deve ser editado com sucesso e a API retorna status 201 com os dados do local editado</t>
   </si>
   <si>
-    <t>Exclusão de Local</t>
-  </si>
-  <si>
-    <t>Dado que o funcionário está logado no sistema.
-Quando o funcionário clica no botão de excluir um local existente.
-Então o local deve ser excluído com sucesso e a API retorna status 204</t>
-  </si>
-  <si>
     <t>Botão de excluir (local específico selecionado)</t>
   </si>
   <si>
@@ -546,11 +395,6 @@
     <t>Tentativa de Excluir Local Inexistente</t>
   </si>
   <si>
-    <t>Dado que o funcionário está logado no sistema.
-Quando o funcionário tenta excluir um local que não existe.
-Então a API retorna mensagem de erro informando que o local não foi encontrado e status 404</t>
-  </si>
-  <si>
     <t>Tentativa de excluir um local com ID não existente.</t>
   </si>
   <si>
@@ -560,18 +404,10 @@
     <t>Tentativa de Cadastrar Local sem Capacidade</t>
   </si>
   <si>
-    <t>Dado que o funcionário está logado no sistema.
-Quando o funcionário tenta cadastrar um local sem preencher a capacidade.
-Então deve aparecer a mensagem "O campo capacidade é obrigatório" e status 400</t>
-  </si>
-  <si>
     <t>A API deve retornar mensagem de erro informando que o campo capacidade é obrigatório e status 400</t>
   </si>
   <si>
     <t>Manter evento</t>
-  </si>
-  <si>
-    <t>Criação de um Novo Evento</t>
   </si>
   <si>
     <t>O evento deve ser criado com sucesso e aparecer na lista de eventos.</t>
@@ -616,53 +452,28 @@
     <t>Validação de Campo de Título Obrigatório na Criação de um Evento</t>
   </si>
   <si>
-    <t>Dado que o organizador está autenticado na plataforma.
-Quando o organizador tenta criar um evento sem fornecer um título.
-Então deve aparecer uma mensagem de erro informando que o campo do título é obrigatório</t>
-  </si>
-  <si>
     <t>Mensagem de erro informando que o campo do título é obrigatório e deve ser preenchido</t>
   </si>
   <si>
     <t>Validação de Campo de Data Obrigatório na Criação de um Evento</t>
   </si>
   <si>
-    <t>Dado que o organizador está autenticado na plataforma.
-Quando o organizador tenta criar um evento sem fornecer uma data.
-Então deve aparecer uma mensagem de erro informando que o campo de data é obrigatório</t>
-  </si>
-  <si>
     <t>Mensagem de erro informando que o campo de data é obrigatório e deve ser preenchido</t>
   </si>
   <si>
     <t>Validação de Campo de Vagas Obrigatório na Criação de um Evento Presencial/Híbrido</t>
   </si>
   <si>
-    <t>Dado que o organizador está autenticado na plataforma.
-Quando o organizador tenta criar um evento presencial sem fornecer o número de vagas.
-Então deve aparecer uma mensagem de erro informando que o campo de vagas é obrigatório</t>
-  </si>
-  <si>
     <t>Mensagem de erro informando que o campo de vagas é obrigatório e deve ser preenchido</t>
   </si>
   <si>
     <t>Validação de Campo de Local Obrigatório na Criação de um Evento Presencial/Híbrido</t>
   </si>
   <si>
-    <t>Dado que o organizador está autenticado na plataforma.
-Quando o organizador tenta criar um evento presencial sem fornecer um local.
-Então deve aparecer uma mensagem de erro informando que o campo de local é obrigatório</t>
-  </si>
-  <si>
     <t>Mensagem de erro informando que o campo de local é obrigatório e deve ser preenchido</t>
   </si>
   <si>
     <t>Validação de Campo de Tipo de Evento Obrigatório na Criação de um Evento</t>
-  </si>
-  <si>
-    <t>Dado que o organizador está autenticado na plataforma.
-Quando o organizador tenta criar um evento sem fornecer o tipo de evento.
-Então deve aparecer uma mensagem de erro informando que o campo de tipo de evento é obrigatório</t>
   </si>
   <si>
     <t>Mensagem de erro informando que o campo de tipo de evento é obrigatório e deve ser preenchido</t>
@@ -696,15 +507,6 @@
     <t>Dado que o organizador está autenticado na plataforma.
 Quando o organizador tenta criar um evento com um número de vagas negativo.
 Então deve aparecer uma mensagem de erro informando que o número de vagas deve ser maior ou igual a zero</t>
-  </si>
-  <si>
-    <t>Título: "Reunião Anual"
-Data: "2025-10-15"
-Vagas: -10 (número negativo)
-Local: "Sala de Conferências"
-Descrição: "Reunião para discutir resultados."
-Tipo de Evento: "presencial"
-Palestrante: "Enrico Viscondi"</t>
   </si>
   <si>
     <t>Mensagem de erro informando que o número de vagas deve ser maior ou igual a zero</t>
@@ -843,11 +645,6 @@
 cpf:98686006000</t>
   </si>
   <si>
-    <t>Nome: Visitante 6
-senha: 123456
-cpf: 88159106033</t>
-  </si>
-  <si>
     <t>Nome: Visitante 8
 E-mail: visit8.com
 senha: 123456
@@ -857,11 +654,6 @@
     <t>Cadastrar conta com cpf em formato inválido</t>
   </si>
   <si>
-    <t>Dado que o usuário não está autenticado
-Quando o usuário cadastra uma conta com cpf inválido
-Então deve aparecer a mensagem "CPF inválido"</t>
-  </si>
-  <si>
     <t>Usuário não deve ser capaz de criar conta com Cpf inválido</t>
   </si>
   <si>
@@ -874,20 +666,9 @@
     <t>Cadastrar conta com cpf já utilizado</t>
   </si>
   <si>
-    <t>Cadastrar conta com email já utilizado</t>
-  </si>
-  <si>
-    <t>Dado que o usuário não está autenticado
-Quando o usuário cadastra uma conta com email já utilizado
-Então deve aparecer a mensagem "Email já utilizado"</t>
-  </si>
-  <si>
     <t>Dado que o usuário não está autenticado
 Quando o usuário cadastra uma conta com cpf já utilizado
 Então deve aparecer a mensagem "CPF já utilizado"</t>
-  </si>
-  <si>
-    <t>Usuário não deve ser capaz de criar conta com e-mail já utilizado</t>
   </si>
   <si>
     <t xml:space="preserve">Nome: Visitante 5
@@ -897,17 +678,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">E-mail: visit6@evt.com
-senha: 123456
-cpf: 81431178047
-</t>
-  </si>
-  <si>
-    <t>Nome: Visitante7
-E-mail: visit7@evt.com
-cpf: 94842759070</t>
-  </si>
-  <si>
     <t>Nome: Visitante 11
 E-mail: visit11@evt.com
 senha: 123456
@@ -915,12 +685,6 @@
   </si>
   <si>
     <t>Usuário não deve ser capaz de criar conta com CPF já utilizado</t>
-  </si>
-  <si>
-    <t>Nome: Visitante 10
-E-mail: visit11@evl.com
-senha: 123456
-cpf:98686006000</t>
   </si>
   <si>
     <t>E-mail: visit1@evt.com
@@ -1015,9 +779,6 @@
 Senha: ""</t>
   </si>
   <si>
-    <t>Cargo: de "ANALISTA" para "COORDENADOR"</t>
-  </si>
-  <si>
     <t>Tentativa de logout</t>
   </si>
   <si>
@@ -1050,22 +811,7 @@
 Capacidade: -50</t>
   </si>
   <si>
-    <t>Nome: "Centro cultural"
-CEP: "70000001"
-Número: 501
-Capacidade: ""</t>
-  </si>
-  <si>
-    <t>Nome: "Auditório Central"
-Rua: "Av. Central"</t>
-  </si>
-  <si>
     <t>Criação de Local com CEP inválido</t>
-  </si>
-  <si>
-    <t>Dado que o funcionário está logado no sistema.
-Quando o funcionário tenta cadastrar um local com CEP inválido
-Então a API retorna mensagem de erro informando que o CEP é inválido e status 400</t>
   </si>
   <si>
     <t>Nome: "Sala de Reuniões C"
@@ -1094,56 +840,7 @@
 Capacidade: 160</t>
   </si>
   <si>
-    <t>Dado que o organizador está autenticado na plataforma.
-Quando o organizador cria um novo evento com os detalhes necessários
-Então o evento deve ser criado com sucesso e aparecer na lista de eventos.</t>
-  </si>
-  <si>
-    <t>Tipo: PRESENCIAL
-Estado: ABERTO
-Data: 2025-12-15 10:30:00
-Descrição: Palestra sobre infra
-Título: Infra
-Vagas: 47
-Local ID: 30</t>
-  </si>
-  <si>
     <t>Campos vazios (título, data, vagas)</t>
-  </si>
-  <si>
-    <t>Título: "Reunião Anual Atualizada"
-Data: "2025-10-20 08:00:00"
-Vagas: 20 
-Local: "5"
-Tipo de Evento: "PRESENCIAL"
-Palestrante: 1</t>
-  </si>
-  <si>
-    <t>Título: "" 
-Descrição: "Reunião semestral"
-Data: "2025-12-01 09:30:00"
-Vagas: 40
-Local: 1
-Tipo de Evento: "PRESENCIAL"
-Palestrante: 1</t>
-  </si>
-  <si>
-    <t>Título: "Reunião semestral" 
-Descrição: "Reunião semestral"
-Data: ""
-Vagas: 40
-Local: 1
-Tipo de Evento: "PRESENCIAL"
-Palestrante: 1</t>
-  </si>
-  <si>
-    <t>Título: "Reunião semestral" 
-Descrição: "Reunião semestral"
-Data: "2025-12-01 09:30:00"
-Vagas: ""
-Local: 1
-Tipo de Evento: "PRESENCIAL"
-Palestrante: 1</t>
   </si>
   <si>
     <t>Título: "Reunião semestral" 
@@ -1155,15 +852,6 @@
 Palestrante: 1</t>
   </si>
   <si>
-    <t>Título: "Reunião semestral" 
-Descrição: "Reunião semestral"
-Data: "2025-12-01 09:30:00"
-Vagas: 40
-Local: 1
-Tipo de Evento: ""
-Palestrante: 1</t>
-  </si>
-  <si>
     <t>Validação de Campo de Descrição Opcional na Criação de um Evento</t>
   </si>
   <si>
@@ -1193,15 +881,6 @@
 Palestrante: ""</t>
   </si>
   <si>
-    <t>Título: "Reunião semestral" 
-Descrição: "Reunião semestral"
-Data: "2025-12-01 09:30:00"
-Vagas: 4000
-Local: 1
-Tipo de Evento: "PRESENCIAL"
-Palestrante: 1</t>
-  </si>
-  <si>
     <t>Validação do Estado do Evento ao Atingir Número Máximo de Vagas</t>
   </si>
   <si>
@@ -1216,14 +895,6 @@
     <t>Dado que o organizador está autenticado na plataforma,
 Quando o horário do evento já tiver passado,
 Então o estado do evento deve ser automaticamente atualizado para "FECHADO"</t>
-  </si>
-  <si>
-    <t>Validação de Local Obrigatório para Eventos Presenciais</t>
-  </si>
-  <si>
-    <t>Dado que o organizador está autenticado na plataforma,
-Quando o organizador tenta criar um evento do tipo "PRESENCIAL" sem fornecer um local_id,
-Então deve aparecer uma mensagem de erro informando que o local é obrigatório</t>
   </si>
   <si>
     <t>Validação de Local Opcional para Eventos Remotos</t>
@@ -1248,15 +919,6 @@
 Vagas: 10
 Local: 1
 Palestrante: 2</t>
-  </si>
-  <si>
-    <t>Título: "Evento Sem Local"
-Descrição: "Palestra sobre inovação."
-Data: "2025-12-20 09:00:00"
-Vagas: 50
-Local ID: NULL
-Tipo de Evento: "PRESENCIAL"
-Palestrante: 1</t>
   </si>
   <si>
     <t>Título: "Palestra Remota"
@@ -1285,12 +947,1079 @@
   <si>
     <t>Observações</t>
   </si>
+  <si>
+    <t>Validar campo de cpf nulo</t>
+  </si>
+  <si>
+    <t>Dado que o usuário não está autenticado
+Quando o usuário cadastra uma conta sem preencher o campo senha
+Então deve aparecer a mensagem "O CPF é obrigatório"</t>
+  </si>
+  <si>
+    <t>Dado que o usuário não está autenticado
+Quando o usuário cadastra uma conta com cpf inválido
+Então deve aparecer a mensagem "O CPF deve conter 11 dígitos numéricos"</t>
+  </si>
+  <si>
+    <t>Dado que o usuário não está autenticado
+Quando o usuário cadastra uma conta com e-mail inválido
+Então deve aparecer a mensagem "Informe um email válido"</t>
+  </si>
+  <si>
+    <t>Nome: Visitante13
+E-mail: visit13@evt.com
+senha: 123456</t>
+  </si>
+  <si>
+    <t>Usuário não deve ser capaz de criar conta sem preencher o campo de CPF</t>
+  </si>
+  <si>
+    <t>Dado que o usuário não está autenticado
+Quando o usuário cadastra uma conta sem preencher o campo senha
+Então deve aparecer a mensagem "A senha é obrigatória"</t>
+  </si>
+  <si>
+    <t>Dado que o usuário não está autenticado
+Quando o usuário cadastra uma conta sem preencher o campo E-mail
+Então deve aparecer a mensagem "O email é obrigatório"</t>
+  </si>
+  <si>
+    <t>Dado que o usuário não está autenticado
+Quando o usuário cadastra uma conta sem preencher o campo Nome
+Então deve aparecer a mensagem "O nome é obrigatório"</t>
+  </si>
+  <si>
+    <t>Dado que o usuário não está autenticado
+Quando o usuário cadastra uma conta com e-mail e senha já cadastrados
+Então deve aparecer a mensagem "Email já cadastrado!"</t>
+  </si>
+  <si>
+    <t>Dado que o usuário não está autenticado
+Quando o usuário cadastra uma conta com seu e-mail e senha
+Então sua conta deverá ser criada
+E deve aparecer a mensagem "Usuário criado com sucesso!"</t>
+  </si>
+  <si>
+    <t>Dado que o usuário está na página de login	
+Quando o usuário insere um e-mail não registrado e uma senha válida	
+Então o sistema deve exibir a mensagem "Credenciais inválidas"</t>
+  </si>
+  <si>
+    <t>Dado que o usuário está na página de login	
+Quando o usuário deixa os campos de e-mail e senha vazios	
+Então o sistema deve exibir a mensagem "A senha é obrigatória. O email é obrigatório."</t>
+  </si>
+  <si>
+    <t>Dado que o usuário está na página de login	
+Quando o usuário insere um e-mail inválido e uma senha inválida	
+Então o sistema deve exibir a mensagem "Credenciais inválidas"</t>
+  </si>
+  <si>
+    <t>Dado que o usuário está na página de login	
+Quando o usuário insere um e-mail válido e uma senha inválida	
+Então o sistema deve exibir a mensagem "Credenciais inválidas"</t>
+  </si>
+  <si>
+    <t>Dado que o usuário está na página de login	
+Quando o usuário insere um e-mail inválido e uma senha válida	
+Então o sistema deve exibir a mensagem "Credenciais inválidas."</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente cadastra um funcionário com dados válidos	
+Então deve aparecer a mensagem "Funcionário criado com sucesso"</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente tenta cadastrar um funcionário com um CPF já cadastrado	
+Então deve aparecer a mensagem "CPF já cadastrado!"</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente tenta cadastrar um funcionário com um formato de e-mail inválido	
+Então deve aparecer a mensagem "Informe um email válido"</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente tenta cadastrar um funcionário com campo de nome obrigatório em branco	
+Então deve aparecer a mensagem "O nome é obrigatório"</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente tenta cadastrar um funcionário com campo de e-mail obrigatório em branco	
+Então deve aparecer a mensagem "O email é obrigatório"</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente tenta cadastrar um funcionário com campo de CPF obrigatório em branco	
+Então deve aparecer a mensagem "O cpf é obrigatório"</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente tenta cadastrar um funcionário com campo de cargo obrigatório em branco	
+Então deve aparecer a mensagem "O cargo é obrigatório"</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente tenta cadastrar um funcionário com campo de departamento obrigatório em branco	
+Então deve aparecer a mensagem "O departamento é obrigatório"</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente tenta cadastrar um funcionário com campo de senha obrigatório em branco	
+Então deve aparecer a mensagem "A senha é obrigatória"</t>
+  </si>
+  <si>
+    <t>Edição de Dados de Funcionário existente</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente edita os dados de um funcionário existente	
+Então deve aparecer a mensagem "Funcionário editado com sucesso"</t>
+  </si>
+  <si>
+    <t>Funcinário:Letícia. Cargo: de "ANALISTA" para "COORDENADOR"</t>
+  </si>
+  <si>
+    <t>id:2222222</t>
+  </si>
+  <si>
+    <t>Validação de email Já Cadastrado</t>
+  </si>
+  <si>
+    <t>Validação do Formato de cpf</t>
+  </si>
+  <si>
+    <t>Edição de Funcionário com email invalido</t>
+  </si>
+  <si>
+    <t>Edição de Funcionário com cpf invalido</t>
+  </si>
+  <si>
+    <t>Edição de Funcionário existente com email existente</t>
+  </si>
+  <si>
+    <t>Edição de Funcionário existente com cpf existente</t>
+  </si>
+  <si>
+    <t>Edição de Funcionário existente com senha invalida</t>
+  </si>
+  <si>
+    <t>Edição de Funcionário inexistente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar Funcionários </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar Funcionários por cargo </t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente tenta editar um funcionário inexistente	
+Então não deve ser possível realizar a ação</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente tenta cadastrar um funcionário com um CPF já cadastrado	
+Então deve aparecer a mensagem "E-mail já cadastrado!"</t>
+  </si>
+  <si>
+    <t>Sistema deve reconhecer o email já cadastrado</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente tenta cadastrar um funcionário com um CPF em formato incorreto	
+Então deve aparecer a mensagem "O CPF deve conter 11 dígitos numéricos"</t>
+  </si>
+  <si>
+    <t>Gerente não deve ser capaz de cadastrar um funcionário com cpf em fomato inválido</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente tenta editar um funcionário com um email inválido	
+Então deve aparecer uma mensagem "Informe um email válido"</t>
+  </si>
+  <si>
+    <t>Nome: "Leticia"
+Email: "leticia.analista.com"
+Cargo: "ANALISTA"
+CPF: "46962686080"
+Departamento: "RH"
+Senha: "123456789"</t>
+  </si>
+  <si>
+    <t>Gerente não deve ser capaz de editar um funcionário utilizando um formato de email inválido</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente tenta editar um funcionário com um CPF inválido	
+Então deve aparecer uma mensagem "O CPF deve conter 11 dígitos numéricos"</t>
+  </si>
+  <si>
+    <t>Nome: "Leticia"
+Email: "leticia.analista@evt.com"
+Cargo: "ANALISTA"
+CPF: "123"
+Departamento: "RH"
+Senha: "123456789"</t>
+  </si>
+  <si>
+    <t>Gerente não deve ser capaz de editar um funcionário utilizando um CPF inválido</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente tenta editar um funcionário existente com um email já registrado	
+Então deve aparecer uma mensagem "E-mail já cadastrado"</t>
+  </si>
+  <si>
+    <t>Nome: "Leticia"
+Email: "julianaG@evt.com"
+Cargo: "ANALISTA"
+CPF: "46962686080"
+Departamento: "RH"
+Senha: "123456789"</t>
+  </si>
+  <si>
+    <t>Gerente não deve ser capaz de editar um funcionário utilizando um email já registrado</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente tenta editar um funcionário existente com um CPF já registrado	
+Então deve aparecer uma mensagem "CPF já cadastrado"</t>
+  </si>
+  <si>
+    <t>Nome: "Leticia"
+Email: "leticia.analista@evt.com"
+Cargo: "ANALISTA"
+CPF: "95234881040"
+Departamento: "RH"
+Senha: "123456789"</t>
+  </si>
+  <si>
+    <t>Gerente não deve ser capaz de editar um funcionário utilizando um CPF já registrado</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente tenta editar um funcionário existente com uma senha inválida	
+Então deve aparecer uma mensagem "A senha deve ter no mínimo 6 caracteres"</t>
+  </si>
+  <si>
+    <t>Nome: "Leticia"
+Email: "leticia.analista@evt.com"
+Cargo: "ANALISTA"
+CPF: "95234881040"
+Departamento: "RH"
+Senha: "222"</t>
+  </si>
+  <si>
+    <t>Gerente não deve ser capaz de editar um funcionário utilizando uma senha inválida</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente tenta listar os funcionários existentes	
+Então o sistema deve exibir a lista dos funcinários registrados</t>
+  </si>
+  <si>
+    <t>Botão listar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+cargo: GERENTE</t>
+  </si>
+  <si>
+    <t>O sistema deve exibir uma lista com todos os funcionários</t>
+  </si>
+  <si>
+    <t>O sistema deve exibir uma lista com todos os funcionários do cargo selecionado</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente tenta listar os funcionários que possuem o cargo selecionado	
+Então o sistema deve exibir a lista dos funcinários que possuem o cargo selecionado</t>
+  </si>
+  <si>
+    <t>Nome: "Auditório Principa 2l"
+CEP: "01310025"
+Número: 1002</t>
+  </si>
+  <si>
+    <t>Dado que o funcionário está logado no sistema.
+Quando o funcionário cadastra um local com dados válidos.
+Então o local deve ser criado com sucesso</t>
+  </si>
+  <si>
+    <t>Dado que o funcionário está logado no sistema.
+Quando o funcionário tenta cadastrar um local com nome vazio.
+Então a API retorna mensagem "O nome é obrigatório"</t>
+  </si>
+  <si>
+    <t>Dado que o funcionário está logado no sistema.
+Quando o funcionário tenta cadastrar um local com nome vazio.
+Então a API retorna mensagem "O númeor é obrigatório"</t>
+  </si>
+  <si>
+    <t>Nome: "Auditório Principal 3"
+CEP: "01310025"
+Capacidade: 160
+Número: ""</t>
+  </si>
+  <si>
+    <t>Não deve ser possível criar um local sem o número</t>
+  </si>
+  <si>
+    <t>Exclusão de Local existente</t>
+  </si>
+  <si>
+    <t>Nome: "Auditório Principal"
+CEP: "01310025"
+Número: 102
+Capacidade: 160</t>
+  </si>
+  <si>
+    <t>Edição de Local existente</t>
+  </si>
+  <si>
+    <t>Dado que o funcionário está logado no sistema.
+Quando o funcionário tenta cadastrar um local com capacidade inválida.
+Então a API retorna mensagem de erro "A capacidade deve ser maior que zero"</t>
+  </si>
+  <si>
+    <t>Criação de local com CEP vazio</t>
+  </si>
+  <si>
+    <t>Dado que o funcionário está logado no sistema.
+Quando o funcionário tenta cadastrar um local com nome vazio.
+Então a API retorna mensagem "O CEP é obrigatório"</t>
+  </si>
+  <si>
+    <t>Nome: "Auditório Principal 4"
+CEP: ""
+Número: 1002
+Capacidade: 160</t>
+  </si>
+  <si>
+    <t>Não deve ser possível criar um local sem o CEP</t>
+  </si>
+  <si>
+    <t>Dado que o funcionário está logado no sistema.
+Quando o funcionário tenta cadastrar um local com CEP inválido
+Então a API retorna mensagem de erro informando que o CEP é inválido</t>
+  </si>
+  <si>
+    <t>Dado que o funcionário está logado no sistema.
+Quando o funcionário tenta cadastrar um local que já existe.
+Então a API retorna mensagem de erro informando que o local já existe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dado que o funcionário está logado no sistema.
+Quando o funcionário edita os dados de um local existente.
+Então o local deve ser editado com sucesso </t>
+  </si>
+  <si>
+    <t>Dado que o funcionário está logado no sistema.
+Quando o funcionário clica no botão de excluir um local existente.
+Então o local deve ser excluído com sucesso</t>
+  </si>
+  <si>
+    <t>Dado que o funcionário está logado no sistema.
+Quando o funcionário tenta excluir um local que não existe.
+Então a API retorna mensagem de erro informando que o local não foi encontrado</t>
+  </si>
+  <si>
+    <t>Dado que o funcionário está logado no sistema.
+Quando o funcionário tenta cadastrar um local sem preencher a capacidade.
+Então deve aparecer a mensagem "A capacidade é obrigatória"</t>
+  </si>
+  <si>
+    <t>Criação de Local com nome existente</t>
+  </si>
+  <si>
+    <t>Dado que o funcionário está logado no sistema.
+Quando o funcionário tenta cadastrar um local com nome que já existe.
+Então a API retorna mensagem de erro informando que "já existe um local com este nome"</t>
+  </si>
+  <si>
+    <t>Criação de Local com CEP não existente</t>
+  </si>
+  <si>
+    <t>Dado que o funcionário está logado no sistema.
+Quando o funcionário tenta cadastrar um local com um CEP inválido
+Então a API retorna mensagem de erro informando "CEP inválido ou não encontrado"</t>
+  </si>
+  <si>
+    <t>Nome: "Sala de Reuniões C"
+CEP: "12345678912"
+Número: "85"
+Capacidade: "65"</t>
+  </si>
+  <si>
+    <t>Não deve ser possível criar um local com um nome já registrado</t>
+  </si>
+  <si>
+    <t>Não deve ser possívwl criar um local com CEP inválido</t>
+  </si>
+  <si>
+    <t>Edicao de local existente com capacidade invalida</t>
+  </si>
+  <si>
+    <t>Nome: "Auditório Principal"
+CEP: "01310025"
+Número: 102
+Capacidade: -2</t>
+  </si>
+  <si>
+    <t>Não deve ser possível editar um local com capacidade inválida</t>
+  </si>
+  <si>
+    <t>Edicao de local existente com nome já existente</t>
+  </si>
+  <si>
+    <t>Nome: "Sala Tech"
+CEP: "01310025"
+Número: 102
+Capacidade: 54</t>
+  </si>
+  <si>
+    <t>Edicao de local existente com cep invalido</t>
+  </si>
+  <si>
+    <t>Dado que o funcionário está logado no sistema.
+Quando o funcionário tenta editar um local com capacidade inválida.
+Então o sistema deve retornar a mensagem  "A capacidade deve ser maior que zero"</t>
+  </si>
+  <si>
+    <t>Dado que o funcionário está logado no sistema.
+Quando o funcionário tenta editar um local com CEP inválido
+Então o sistema deve retornar a mensagem "O CEP  deve estar no formato 00000-000"</t>
+  </si>
+  <si>
+    <t>Dado que o funcionário está logado no sistema.
+Quando o funcionário tenta editar um local com nome já existente
+Então o sistema deve retornar a mensagem "Já existe um local com esse nome"</t>
+  </si>
+  <si>
+    <t>Nome: "Auditório Principal"
+CEP: "2"
+Número: 102
+Capacidade: 24</t>
+  </si>
+  <si>
+    <t>Edicao de local existente com cep inexistente</t>
+  </si>
+  <si>
+    <t>Dado que o funcionário está logado no sistema.
+Quando o funcionário tenta editar um local com CEP inexistente
+Então o sistema deve retornar a mensagem "CEP inválido ou não encontrado"</t>
+  </si>
+  <si>
+    <t>Nome: "Auditório Principal"
+CEP: "12345678901"
+Número: 102
+Capacidade: 24</t>
+  </si>
+  <si>
+    <t>Não deve ser possível editar um local com um nome já registrado</t>
+  </si>
+  <si>
+    <t>Não deve ser possível editar um local com cep inválido</t>
+  </si>
+  <si>
+    <t>Não deve ser possível editar um local com cep inexistente</t>
+  </si>
+  <si>
+    <t>Edicao de local inexistente</t>
+  </si>
+  <si>
+    <t>Dado que o funcionário está logado no sistema.
+Quando o funcionário tenta editar um local  inexistente
+Então o sistema deve retornar a mensagem "Local não enconstrado"</t>
+  </si>
+  <si>
+    <t>id: 242424</t>
+  </si>
+  <si>
+    <t>Não deve ser possível excluir um local que não existe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar locais </t>
+  </si>
+  <si>
+    <t>Listar local específico</t>
+  </si>
+  <si>
+    <t>Dado que o funcionário está logado no sistema.
+Quando o funcionário lista os locais
+Então o sistema deve retornar todos os locais registrados</t>
+  </si>
+  <si>
+    <t>O sistema deve retornar uma lista de todos os locais registrados</t>
+  </si>
+  <si>
+    <t>O sistema deve retornar uma lista com o local especificado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+nome : Auditório Principal</t>
+  </si>
+  <si>
+    <t>Criação de um Novo Evento não remoto com dados válidos</t>
+  </si>
+  <si>
+    <t>Dado que o organizador está autenticado na plataforma.
+Quando o organizador cria um novo evento não remoto com os detalhes necessários
+Então o evento deve ser criado com sucesso e aparecer na lista de eventos.</t>
+  </si>
+  <si>
+    <t>Tipo: PRESENCIAL
+Estado: ABERTO
+Data: 01/12/2025 09:00
+Descricao: Workshop de liderança
+Titulo: Workshop de Liderança
+Vagas: 30
+Local: Auditório Central
+Palestrante: Carlos Gerente</t>
+  </si>
+  <si>
+    <t>Tipo: PRESENCIAL
+Estado: ABERTO
+Data: 01/12/2025 09:00
+Descricao: Workshop de liderança
+Titulo: Workshop de Liderança 2
+Vagas: 30
+Local: Auditório Central
+Palestrante: Carlos Gerente</t>
+  </si>
+  <si>
+    <t>Dado que o organizador está autenticado na plataforma.
+Quando o organizador tenta criar um evento sem fornecer um título.
+Então deve aparecer uma mensagem "O evento precisa de um título"</t>
+  </si>
+  <si>
+    <t>Dado que o organizador está autenticado na plataforma.
+Quando o organizador tenta criar um evento sem fornecer uma data.
+Então deve aparecer uma mensagem "O evento precisa de uma data"</t>
+  </si>
+  <si>
+    <t>Dado que o organizador está autenticado na plataforma.
+Quando o organizador tenta criar um evento presencial sem fornecer o número de vagas.
+Então deve aparecer uma mensagem "O evento precisa ter uma quantidade de vagas"</t>
+  </si>
+  <si>
+    <t>Tipo: PRESENCIAL
+Estado: ABERTO
+Data: 25/12/2025 10:00
+Descrição: Evento de Natal
+Título: Natal Solidário
+Vagas: ""
+Local: Salão de Eventos
+Palestrante: Carlos Gerente</t>
+  </si>
+  <si>
+    <t>Tipo: REMOTO
+Estado: ABERTO
+Descrição: Palestra sobre produtividade
+Data: ""
+Título: Alta Performance
+Vagas: 90
+Palestrante: Carlos Gerente</t>
+  </si>
+  <si>
+    <t>Tipo: HÍBRIDO
+Título: ""
+Estado: ABERTO
+Data: 10/12/2025 15:00
+Descrição: Tech Conference 2025
+Vagas: 200
+Local: Auditório Secundário
+Palestrante: João Palestrante</t>
+  </si>
+  <si>
+    <t>Tipo: PRESENCIAL
+Estado: ABERTO
+Data: 18/12/2025 14:00
+Descrição: Workshop intensivo sobre práticas ágeis e metodologias Scrum.
+Título: Workshop de Metodologias Ágeis
+Vagas: 4555
+Local: Auditório Central
+Palestrante: Ana Analista</t>
+  </si>
+  <si>
+    <t>Dado que o organizador está autenticado na plataforma.
+Quando o organizador tenta criar um evento sem fornecer o tipo de evento.
+Então deve aparecer uma mensagem "O evento precisa ter um tipo"</t>
+  </si>
+  <si>
+    <t>Tipo: ""
+Título: "Reunião semestral" 
+Descrição: "Reunião semestral"
+Data: "2025-12-01 09:30:00"
+Vagas: 40
+Local: 1
+Palestrante: 1</t>
+  </si>
+  <si>
+    <t>Dado que o organizador está autenticado na plataforma.
+Quando o organizador tenta criar um evento presencial sem fornecer um local.
+Então deve aparecer uma mensagem de erro informando que o campo de local é obrigatório"O local é obrigatório para eventos presenciais"</t>
+  </si>
+  <si>
+    <t>Título: "Reunião Anual"
+Data: "2025-10-15"
+Vagas: -10 (número negativo)
+Local: "Sala de Conferências"
+Descrição: "Reunião para discutir resultados."
+Tipo de Evento: "presencial"
+Palestrante: "Enrico Viscondi"Tipo: "PRESENCIAL"
+Título: "Reunião semestral" 
+Descrição: "Reunião semestral"
+Data: "2025-12-01 09:30:00"
+Vagas: -40
+Local: 1
+Palestrante: 1</t>
+  </si>
+  <si>
+    <t>Sistema não deve aceitar mais inscrições  em um evento cujas vagas foram preenchidas</t>
+  </si>
+  <si>
+    <t>Sistema não deve aceitar mais inscrições  em um evento cujo horário já foi cumprido</t>
+  </si>
+  <si>
+    <t>Criação de Evento com Dados Válidos do tipo remoto</t>
+  </si>
+  <si>
+    <t>Dado que o organizador está autenticado na plataforma.
+Quando o organizador cria um novo evento remoto com os detalhes necessários
+Então o evento deve ser criado com sucesso e aparecer na lista de eventos.</t>
+  </si>
+  <si>
+    <t>Tipo: REMOTO
+Estado: ABERTO
+Data: 05/12/2025 10:00
+Descricao: Palestra sobre segurança da informação
+Titulo: Segurança Digital
+Vagas: 100
+Palestrante: Ana Analista</t>
+  </si>
+  <si>
+    <t>Evento remoto deve ser criado com sucesso</t>
+  </si>
+  <si>
+    <t>Tipo: PRESENCIAL
+Estado: ""
+Data: 05/12/2025 10:00
+Descrição: Palestra sobre segurança da informação
+Título: Segurança Digital
+Vagas: 100
+Palestrante: Ana Analista</t>
+  </si>
+  <si>
+    <t>Dado que o organizador está autenticado na plataforma,
+Quando o organizador cria um evento sem fornecer um estado,
+Então o sistema deve apresentar a mensagem "O evento precisa ter um estado"</t>
+  </si>
+  <si>
+    <t>Validação de  Estado do Evento obrigatório</t>
+  </si>
+  <si>
+    <t>Sistema não deve criar um evento sem estado</t>
+  </si>
+  <si>
+    <t>Criação de evento com título já existente</t>
+  </si>
+  <si>
+    <t>Dado que o organizador está autenticado na plataforma,
+Quando o organizador cria um evento com um título já registrado
+Então o sistema deve apresentar a mensagem "Título já cadastrado"</t>
+  </si>
+  <si>
+    <t>Tipo: REMOTO
+Estado: ABERTO
+Data: 22/11/2025 19:30
+Descrição: Palestra online sobre novas tendências de cibersegurança em 2025.
+Título: Workshop de Liderança
+Vagas: 120
+Palestrante: João Coordenador</t>
+  </si>
+  <si>
+    <t>Sistema não deve criar um evento cujo título já foi registrado</t>
+  </si>
+  <si>
+    <t>Criação de evento com palestrante não existnte</t>
+  </si>
+  <si>
+    <t>Dado que o organizador está autenticado na plataforma,
+Quando o organizador cria um evento E atribui a ele um palestrante inválido
+Então o sistema deve apresentar a mensagem "palestrante não encontrado"</t>
+  </si>
+  <si>
+    <t>Tipo: HÍBRIDO
+Estado: ABERTO
+Data: 09/12/2025 10:00
+Descrição: Conferência híbrida sobre inteligência artificial e aprendizado de máquina.
+Título: AI &amp; Machine Learning Summit
+Vagas: 250
+Local: Centro de Convenções
+Palestrante: Henrique Munhos</t>
+  </si>
+  <si>
+    <t>Sistema não deve criar um evento com um palestrante inválido</t>
+  </si>
+  <si>
+    <t>Edição de evento existente com palestrante inválido</t>
+  </si>
+  <si>
+    <t>Dado que o organizador está autenticado na plataforma,
+Quando o organizador edita um evento E atribui a ele um palestrante inválido
+Então o sistema deve apresentar a mensagem "palestrante não encontrado"</t>
+  </si>
+  <si>
+    <t>Tipo: PRESENCIAL
+Estado: ABERTO
+Data: 01/12/2025 09:00
+Descricao: Workshop de liderança
+Titulo: Workshop de Liderança
+Vagas: 30
+Local: Auditório Central
+Palestrante: Henrique Munhos</t>
+  </si>
+  <si>
+    <t>Sistema não deve editar um evento com um palestrante inválido</t>
+  </si>
+  <si>
+    <t>Edção de evento existente com quantidade de vagas acima da capacidade</t>
+  </si>
+  <si>
+    <t>Tipo: PRESENCIAL
+Estado: ABERTO
+Data: 01/12/2025 09:00
+Descricao: Workshop de liderança
+Titulo: Workshop de Liderança
+Vagas: 300000
+Local: Auditório Central
+Palestrante: Carlos Gerente</t>
+  </si>
+  <si>
+    <t>Sistema não deve editar um evento com vagas acima da capacidade do local</t>
+  </si>
+  <si>
+    <t>Edição de evento com local inválido</t>
+  </si>
+  <si>
+    <t>Dado que o organizador está autenticado na plataforma,
+Quando o organizador edita um evento com local inválido ou inexistente
+Então o sistema deve apresentar a mensagem "local não encontrado"</t>
+  </si>
+  <si>
+    <t>Dado que o organizador está autenticado na plataforma,
+Quando o organizador edita um evento com número de vagas acima da capacidade do local
+Então o sistema deve apresentar a mensagem "Número de vagas não pode ser maior que a capacidade do local"</t>
+  </si>
+  <si>
+    <t>Tipo: PRESENCIAL
+Estado: ABERTO
+Data: 01/12/2025 09:00
+Descricao: Workshop de liderança
+Titulo: Workshop de Liderança
+Vagas: 30
+Local: IFSP
+Palestrante: Carlos Gerente</t>
+  </si>
+  <si>
+    <t>Sistema não deve editar um evento com local inválido</t>
+  </si>
+  <si>
+    <t>Edição de evento de estado fechado</t>
+  </si>
+  <si>
+    <t>Dado que o organizador está autenticado na plataforma,
+Quando o organizador edita um evento    de estado fechado
+Então o sistema deve apresentar a mensagem "Evento já foi fechadop e não pode ser alterado"</t>
+  </si>
+  <si>
+    <t>Tipo: PRESENCIAL
+Estado: ABERTO
+Data: 01/12/2025 09:00
+Descricao: Workshop de liderança
+Titulo: Workshop de Liderança 3
+Vagas: 30
+Local: Auditório Central
+Palestrante: Carlos Gerente</t>
+  </si>
+  <si>
+    <t>Sistema não deve editar um evento que já foi fechado</t>
+  </si>
+  <si>
+    <t>Edição de evento não existente</t>
+  </si>
+  <si>
+    <t>Dado que o organizador está autenticado na plataforma,
+Quando o organizador edita um evento inválido
+Então o sistema deve apresentar a mensagem "Evento não encontrado"</t>
+  </si>
+  <si>
+    <t>Sistema não deve editar um evento inválido</t>
+  </si>
+  <si>
+    <t>Exclusão de um Evento Inexistente</t>
+  </si>
+  <si>
+    <t>Dado que o organizador está autenticado na plataforma.
+Quando o organizador exclui um evento inexistente.
+Então o sistema deve apresentar a mensagem "Evento não encontrado"</t>
+  </si>
+  <si>
+    <t>Sistema não deve excluir um evento inválido</t>
+  </si>
+  <si>
+    <t>Listar eventos</t>
+  </si>
+  <si>
+    <t>Dado que o organizador está autenticado na plataforma,
+Quando o organizador solicita a listagem de eventos
+Então o sistema deve apresentar a lista de todos os eventos registrados</t>
+  </si>
+  <si>
+    <t>Sistema deve apresentar a lista de todos os eventos</t>
+  </si>
+  <si>
+    <t>Listar evento específico</t>
+  </si>
+  <si>
+    <t>Dado que o organizador está autenticado na plataforma,
+Quando o organizador solicita a listagem de um evento específico através do título
+Então o sistema deve apresentar a lista com o evento correspondente</t>
+  </si>
+  <si>
+    <t>nome : Workshop de Liderança</t>
+  </si>
+  <si>
+    <t>Sistema deve apresentar a lista com o evento correspondente ao título pesquisado</t>
+  </si>
+  <si>
+    <t>Validar inclusão de caracteres especiais em campo de CPF</t>
+  </si>
+  <si>
+    <t>Dado que o usuário não está autenticado
+Quando o usuário cadastra uma conta E insere caracteres especiais no campo de CPF
+Então o sistema não deve criar a conta</t>
+  </si>
+  <si>
+    <t>Usuário não deve ser capaz de criar conta ao preencher o campo de CPF com caracteres especiais</t>
+  </si>
+  <si>
+    <t>Nome: Visitante14
+E-mail: visit13@evt.com
+senha: 123457
+CPF: 24688#254789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome: ""
+E-mail: visit6@evt.com
+senha: 123456
+cpf: 81431178047
+</t>
+  </si>
+  <si>
+    <t>Nome: Visitante 6
+E-mail: ""
+senha: 123456
+cpf: 88159106033</t>
+  </si>
+  <si>
+    <t>Nome: Visitante7
+E-mail: visit7@evt.com
+senha: "
+cpf: 94842759070</t>
+  </si>
+  <si>
+    <t>Validação de inclusão de caracters especiais no campo CPF</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente tenta cadastrar um funcionário com um caractere especial no campo CPF
+Então o sistema não deve criar a conta</t>
+  </si>
+  <si>
+    <t>O sistema não deve criar comta com caracteres especiais no campo de CPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Nome: "Julia"
+Email: "julianaG@evt.com"
+Cargo: "ANALISTA"
+CPF: "815#3/1067"
+Departamento: "RH"
+Senha: "123456"</t>
+  </si>
+  <si>
+    <t>Criação de Local com o número vazio</t>
+  </si>
+  <si>
+    <t>Criação de local com caracteres especiais no campo CEP</t>
+  </si>
+  <si>
+    <t>Dado que o funcionário está logado no sistema.
+Quando o funcionário tenta cadastrar um local com caractere especial no CEP
+Então o sistema não deve criar o local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Nome: "Sala de Reuniões C"
+CEP: "300*5634"
+Número: "85"
+Capacidade: "65"</t>
+  </si>
+  <si>
+    <t>O sistema não deve cadastrar um local co caractere especial inserido no CEP</t>
+  </si>
+  <si>
+    <t>Dado que o funcionário está logado no sistema.
+Quando o funcionário lista o local específico que deseja
+Então o sistema deve retornar o local especificado</t>
+  </si>
+  <si>
+    <t>Manter Usuário</t>
+  </si>
+  <si>
+    <t>Manter usuário</t>
+  </si>
+  <si>
+    <t>Editar usuário existente</t>
+  </si>
+  <si>
+    <t>Editar usuário com e-mail existente</t>
+  </si>
+  <si>
+    <t>Editar usuário com CPF existente</t>
+  </si>
+  <si>
+    <t>Editar usuário não existente</t>
+  </si>
+  <si>
+    <t>Excluir usuário não existente</t>
+  </si>
+  <si>
+    <t>Listar usuários</t>
+  </si>
+  <si>
+    <t>UCS8</t>
+  </si>
+  <si>
+    <t>Editar usuário com senha inválida</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente edita um usuário com dados válidos	
+Então o sistema deve realizar as mudanças realizadas</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente edita um usuário com um email existente
+Então o sistema não deve realizar as mudanças solicitadas</t>
+  </si>
+  <si>
+    <t>Sistema deve atualizar os dados modificados com sucesso</t>
+  </si>
+  <si>
+    <t>Sistema não deve realizar as atualizações com um e-mail já cadastrado em outro usuário</t>
+  </si>
+  <si>
+    <t>Sistema não deve realizar as atualizações com um CPF já cadastrado em outro usuário</t>
+  </si>
+  <si>
+    <t>Sistema não deve realizar as atualizações com uma senha inválida</t>
+  </si>
+  <si>
+    <t>Sistema não deve realizar atualizações em um usuário não existente</t>
+  </si>
+  <si>
+    <t>Sistema não deve realizar a exclusão de um usuário inexistente</t>
+  </si>
+  <si>
+    <t>Sistema deve listar os usuários conforme solicitado</t>
+  </si>
+  <si>
+    <t>Excluir usuário existente</t>
+  </si>
+  <si>
+    <t>Sistema deve excluir o usuário com sucesso</t>
+  </si>
+  <si>
+    <t>Botão excluir</t>
+  </si>
+  <si>
+    <t>id: 25785526</t>
+  </si>
+  <si>
+    <t>id: 21474785</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente edita um usuário com um CPF existente
+Então o sistema não deve realizar as mudanças solicitadas</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente edita um usuário com uma senha inválida
+Então o sistema não deve realizar as mudanças solicitadas</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente edita um usuário inexistente
+Então o sistema não deve realizar as mudanças solicitadas</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente tenta excluir um usuário inexistente
+Então o sistema não deve realizar as mudanças solicitadas</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente solicita a listagem de usuários	
+Então o sistema deve mostrar a listagem de todos os usuários</t>
+  </si>
+  <si>
+    <t>Dado que o gerente está logado no sistema	
+Quando o gerente exclui um usuário com dados válidos	
+Então o sistema deve realizar as mudanças realizadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome: Visitante 1 Jonas
+E-mail: visit1@evt.com
+Senha: 123456
+cpf: 98686006000
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome: Visitante 11
+E-mail: visit1@evt.com
+Senha: 123456
+cpf: 07478267068
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome: Visitante 7
+E-mail: visit7@evt.com
+senha: 123456
+cpf: 07478267068
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome: Visitante 7
+E-mail: visit7@evt.com
+senha: 1234
+cpf: 94842759070
+</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1504,6 +2233,17 @@
     <font>
       <sz val="11"/>
       <color rgb="FF92D050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1934,7 +2674,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2023,6 +2763,24 @@
     <xf numFmtId="0" fontId="32" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2049,20 +2807,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Bom" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Bom" xfId="1"/>
     <cellStyle name="Cálculo" xfId="2" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Célula de Verificação" xfId="3"/>
     <cellStyle name="Entrada" xfId="4" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Incorreto" xfId="5" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutra" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 3" xfId="7"/>
     <cellStyle name="Nota" xfId="8" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Porcentagem 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Ruim" xfId="5" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Porcentagem 2" xfId="9"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="11" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título 5" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Título 5" xfId="13"/>
     <cellStyle name="Total" xfId="14" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2493,53 +3251,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="4.1796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="23"/>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="39"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="24"/>
       <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24"/>
       <c r="C4" s="18" t="s">
         <v>0</v>
@@ -2558,20 +3316,20 @@
       </c>
       <c r="L4" s="25"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="24"/>
       <c r="C5" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="L5" s="25"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="24"/>
       <c r="C6" s="20" t="s">
         <v>24</v>
@@ -2584,46 +3342,46 @@
       <c r="H6" s="19"/>
       <c r="L6" s="25"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="24"/>
       <c r="C7" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="21">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="L7" s="25"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="24"/>
       <c r="C8" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="21">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="L8" s="25"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
       <c r="C9" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="21">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="24"/>
       <c r="C10" s="20" t="s">
         <v>28</v>
@@ -2636,7 +3394,7 @@
       <c r="H10" s="19"/>
       <c r="L10" s="25"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="24"/>
       <c r="C11" s="20" t="s">
         <v>29</v>
@@ -2649,57 +3407,70 @@
       <c r="H11" s="19"/>
       <c r="L11" s="25"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="24"/>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="D12" s="21">
+        <v>8</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="24"/>
+      <c r="C13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="L12" s="25"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
-      <c r="C13" s="21">
+      <c r="D13" s="22"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="L13" s="25"/>
+    </row>
+    <row r="14" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="21">
         <f>COUNTA(C5:C11)</f>
         <v>7</v>
       </c>
-      <c r="D13" s="21">
-        <f>SUM(D5:D11)</f>
-        <v>67</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="D14" s="21">
+        <f>SUM(D5:D12)</f>
+        <v>109</v>
+      </c>
+      <c r="F14" s="3">
         <f>SUM(F5:F11)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G14" s="3">
         <f>SUM(G5:G11)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H14" s="3">
         <f>SUM(H5:H11)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="26">
-        <f>SUM(F13:H13)</f>
+      <c r="I14" s="26">
+        <f>SUM(F14:H14)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="25"/>
-    </row>
-    <row r="14" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2712,31 +3483,405 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X20"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
+        <v>8</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>433</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+    </row>
+    <row r="10" spans="1:24" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>2</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+    </row>
+    <row r="11" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>3</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>4</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>5</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>6</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>7</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>8</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:C4"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2750,72 +3895,73 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Y24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7265625" style="4" customWidth="1"/>
-    <col min="7" max="8" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="41">
-        <v>10</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-    </row>
-    <row r="3" spans="1:25" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
+        <v>11</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+    </row>
+    <row r="3" spans="1:25" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+    </row>
+    <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="42.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -2825,12 +3971,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>15</v>
@@ -2851,30 +3997,30 @@
         <v>19</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="84" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>1</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="32" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>33</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -2892,27 +4038,27 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="1:25" ht="70.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>39</v>
+        <v>245</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -2930,222 +4076,245 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
     </row>
-    <row r="11" spans="1:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" ht="114" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="70" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>43</v>
+        <v>244</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>232</v>
+        <v>420</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="70" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>5</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>220</v>
+        <v>421</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="70" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>6</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>47</v>
+        <v>242</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>233</v>
+        <v>422</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="70" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>7</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="70" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>8</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>9</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>10</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C23" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>11</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="D26" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3165,71 +4334,73 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:X25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7265625" style="4" customWidth="1"/>
-    <col min="7" max="9" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="41">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
         <v>10</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-    </row>
-    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="42" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -3239,12 +4410,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>15</v>
@@ -3265,28 +4436,28 @@
         <v>19</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="84" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>1</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="32" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -3304,27 +4475,27 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" ht="84" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -3342,221 +4513,221 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" ht="84" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="84" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>4</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>71</v>
+        <v>250</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="84" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>5</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="84" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>6</v>
       </c>
       <c r="B14" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="32" t="s">
         <v>62</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>68</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="84" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>7</v>
       </c>
       <c r="B15" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>63</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>69</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="84" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>8</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="84" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>9</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="84" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>10</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C24" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="D23" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3576,86 +4747,88 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:X27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7265625" style="4" customWidth="1"/>
-    <col min="7" max="9" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="41">
-        <v>13</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-    </row>
-    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
+        <v>23</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="42" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="14.5" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>15</v>
@@ -3676,30 +4849,30 @@
         <v>19</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="84" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>1</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>90</v>
+        <v>252</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -3717,27 +4890,27 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" ht="84" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>91</v>
+        <v>253</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -3755,290 +4928,531 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" ht="98" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>92</v>
+        <v>254</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="98" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="114" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>4</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="98" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>5</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>107</v>
+        <v>255</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="98" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>6</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>106</v>
+        <v>256</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="35" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="98" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>7</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>109</v>
+        <v>257</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="98" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>8</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>111</v>
+        <v>258</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="98" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>9</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>113</v>
+        <v>259</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="98" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>10</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>115</v>
+        <v>260</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="84" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>11</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>85</v>
+        <v>261</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>94</v>
+        <v>262</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="84" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>12</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="84" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>13</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>87</v>
+        <v>272</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>97</v>
+        <v>264</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C26" s="11" t="s">
+      <c r="I21" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>14</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
         <v>15</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="12"/>
+      <c r="B23" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>16</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>17</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
+        <v>18</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>19</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>291</v>
+      </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="114" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>20</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>21</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <v>22</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>23</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -4048,6 +5462,7 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:C4"/>
   </mergeCells>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -4058,86 +5473,88 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:X24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7265625" style="4" customWidth="1"/>
-    <col min="7" max="9" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="41">
-        <v>9</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-    </row>
-    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
+        <v>21</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="28" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="14.5" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>15</v>
@@ -4158,30 +5575,30 @@
         <v>19</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="98" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>1</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>118</v>
+        <v>302</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -4199,27 +5616,27 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" ht="98" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>121</v>
+        <v>303</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="34" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -4237,198 +5654,474 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" ht="98" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>263</v>
+        <v>210</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="98" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>4</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>125</v>
+        <v>310</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="98" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>5</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>128</v>
+        <v>316</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="98" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>6</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>130</v>
+        <v>309</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>131</v>
+        <v>317</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="84" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>7</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>133</v>
+        <v>307</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="98" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>8</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>138</v>
+        <v>319</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="98" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>9</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>142</v>
+        <v>320</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="I17" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>10</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>11</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>12</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>13</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>14</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
         <v>15</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="12"/>
+      <c r="B23" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>16</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>342</v>
+      </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>17</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
+        <v>18</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>19</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>20</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>21</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -4438,6 +6131,7 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:C4"/>
   </mergeCells>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -4448,86 +6142,88 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:X32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7265625" style="4" customWidth="1"/>
-    <col min="7" max="9" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="19.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="41">
-        <v>17</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-    </row>
-    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
+        <v>28</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="28" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="14.5" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>15</v>
@@ -4548,30 +6244,30 @@
         <v>19</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="98" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="114" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>1</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>145</v>
+        <v>354</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>267</v>
+        <v>355</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>268</v>
+        <v>356</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -4589,27 +6285,27 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" ht="84" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -4627,374 +6323,635 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" ht="98" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="112" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>4</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="35" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="98" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="114" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>5</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>158</v>
+        <v>358</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>271</v>
+        <v>363</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="98" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>6</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>161</v>
+        <v>359</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>272</v>
+        <v>362</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="112" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="114" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>7</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>164</v>
+        <v>360</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>273</v>
+        <v>361</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="98" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>8</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="98" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>9</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>170</v>
+        <v>365</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>275</v>
+        <v>366</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="98" x14ac:dyDescent="0.3">
+      <c r="I17" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>10</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="98" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>11</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="126" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>12</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>281</v>
+        <v>364</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="112" x14ac:dyDescent="0.3">
+      <c r="I20" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>13</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>180</v>
+        <v>368</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="98" x14ac:dyDescent="0.3">
+      <c r="I21" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>14</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>282</v>
+        <v>221</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>283</v>
+        <v>222</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="E22" s="32"/>
+        <v>227</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>369</v>
+      </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="98" x14ac:dyDescent="0.3">
+      <c r="I22" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>15</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>284</v>
+        <v>223</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="E23" s="32"/>
+        <v>228</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>370</v>
+      </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="98" x14ac:dyDescent="0.3">
+      <c r="I23" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="114" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>16</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>286</v>
+        <v>371</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>287</v>
+        <v>372</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="E24" s="32"/>
+        <v>373</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>111</v>
+      </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="98" x14ac:dyDescent="0.3">
+      <c r="I24" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>17</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="E25" s="32"/>
+        <v>229</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>374</v>
+      </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="12"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
+        <v>18</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>19</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>20</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="114" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>21</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <v>22</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="114" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>23</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <v>24</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>402</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <v>25</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>26</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <v>27</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>28</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -5014,86 +6971,88 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7265625" style="4" customWidth="1"/>
-    <col min="7" max="9" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="41">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
         <v>4</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-    </row>
-    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="28" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="14.5" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>15</v>
@@ -5114,10 +7073,10 @@
         <v>19</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="84" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -5125,17 +7084,17 @@
         <v>20</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="32" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -5153,27 +7112,27 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" ht="84" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -5191,74 +7150,74 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" ht="98" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="98" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>4</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="32" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>295</v>
+        <v>231</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>296</v>
+        <v>232</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>297</v>
+        <v>233</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>299</v>
+        <v>235</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="33"/>
       <c r="C18" s="32"/>
@@ -5285,86 +7244,91 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7265625" style="4" customWidth="1"/>
-    <col min="7" max="9" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="41">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
         <v>4</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-    </row>
-    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="28" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="14.5" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>15</v>
@@ -5385,30 +7349,30 @@
         <v>19</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="84" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>1</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -5426,25 +7390,25 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" ht="56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="32" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -5462,74 +7426,74 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" ht="70" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="98" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>4</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="32" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>295</v>
+        <v>231</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>296</v>
+        <v>232</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>297</v>
+        <v>233</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>299</v>
+        <v>235</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="33"/>
       <c r="C19" s="32"/>

--- a/4.Teste/EvT - Roteiro de Teste.xlsx
+++ b/4.Teste/EvT - Roteiro de Teste.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62024C3F-FBAD-47E6-AE58-B8570677B5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="913"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="913" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
     <definedName name="__xlfn_IFERROR">NA()</definedName>
     <definedName name="combo_SimNao">AUX!$A$2:$A$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="517">
   <si>
     <t>Caso de Uso</t>
   </si>
@@ -314,9 +315,6 @@
 Então deve aparecer uma mensagem de confirmação e a exclusão do registro</t>
   </si>
   <si>
-    <t>Seleção de funcionário cadastrado e clicar no botão excluir</t>
-  </si>
-  <si>
     <t>Gerente não deve ser capaz de cadastrar funcionário com e-mail inválido</t>
   </si>
   <si>
@@ -546,20 +544,6 @@
     <t>Usuário deve se inscrever no evento com exito</t>
   </si>
   <si>
-    <t>Cancelar Inscrição em Evento</t>
-  </si>
-  <si>
-    <t>Dado que o usuário está logado no sistema,
-Quando o usuário clica no botão “Cancelar inscrição” em um evento,
-Então deve aparecer uma mensagem de confirmação e a exclusão do vínculo de participação</t>
-  </si>
-  <si>
-    <t>Clicar no botão de cancelamento da inscrição</t>
-  </si>
-  <si>
-    <t>Usuário deve cancelar sua inscrição no evento com exito</t>
-  </si>
-  <si>
     <t>Verificar Status da Inscrição</t>
   </si>
   <si>
@@ -613,17 +597,6 @@
     <t>Usuário deve visualizar os detalhes do evento selecionado</t>
   </si>
   <si>
-    <t>Verificar Mensagem ao Não Haver Eventos Cadastrados</t>
-  </si>
-  <si>
-    <t>Dado que o usuário está logado no sistema e não há eventos cadastrados,
-Quando o usuário acessa a tela de lista de eventos,
-Então o sistema deve exibir uma mensagem informando que não há eventos cadastrados</t>
-  </si>
-  <si>
-    <t>Mensagem informando que não há eventos cadastrados</t>
-  </si>
-  <si>
     <t>Prioridade</t>
   </si>
   <si>
@@ -637,12 +610,6 @@
   </si>
   <si>
     <t>Baixa</t>
-  </si>
-  <si>
-    <t>Nome: Visitante 1
-E-mail: visit1@evl.com
-senha: 123456
-cpf:98686006000</t>
   </si>
   <si>
     <t>Nome: Visitante 8
@@ -799,12 +766,6 @@
 Capacidade: 150</t>
   </si>
   <si>
-    <t>Nome: ""
-CEP: "13000000"
-Número: 500
-Capacidade: 50</t>
-  </si>
-  <si>
     <t>Nome: "Sala de Reuniões A"
 CEP: "30000000"
 Número: 50
@@ -818,12 +779,6 @@
 CEP: "300"
 Número: "85"
 Capacidade: "65"</t>
-  </si>
-  <si>
-    <t>Nome: Visitante 12
-E-mail: visit12@evl.com
-senha: 123456
-cpf:18951445070</t>
   </si>
   <si>
     <t>Nome: "Leticia"
@@ -832,12 +787,6 @@
 CPF: "46962686080"
 Departamento: "RH"
 Senha: "123456"</t>
-  </si>
-  <si>
-    <t>Nome: "Auditório Principal"
-CEP: "01310025"
-Número: 1002
-Capacidade: 160</t>
   </si>
   <si>
     <t>Campos vazios (título, data, vagas)</t>
@@ -1140,14 +1089,6 @@
 Então deve aparecer uma mensagem "Informe um email válido"</t>
   </si>
   <si>
-    <t>Nome: "Leticia"
-Email: "leticia.analista.com"
-Cargo: "ANALISTA"
-CPF: "46962686080"
-Departamento: "RH"
-Senha: "123456789"</t>
-  </si>
-  <si>
     <t>Gerente não deve ser capaz de editar um funcionário utilizando um formato de email inválido</t>
   </si>
   <si>
@@ -1156,14 +1097,6 @@
 Então deve aparecer uma mensagem "O CPF deve conter 11 dígitos numéricos"</t>
   </si>
   <si>
-    <t>Nome: "Leticia"
-Email: "leticia.analista@evt.com"
-Cargo: "ANALISTA"
-CPF: "123"
-Departamento: "RH"
-Senha: "123456789"</t>
-  </si>
-  <si>
     <t>Gerente não deve ser capaz de editar um funcionário utilizando um CPF inválido</t>
   </si>
   <si>
@@ -1172,14 +1105,6 @@
 Então deve aparecer uma mensagem "E-mail já cadastrado"</t>
   </si>
   <si>
-    <t>Nome: "Leticia"
-Email: "julianaG@evt.com"
-Cargo: "ANALISTA"
-CPF: "46962686080"
-Departamento: "RH"
-Senha: "123456789"</t>
-  </si>
-  <si>
     <t>Gerente não deve ser capaz de editar um funcionário utilizando um email já registrado</t>
   </si>
   <si>
@@ -1188,28 +1113,12 @@
 Então deve aparecer uma mensagem "CPF já cadastrado"</t>
   </si>
   <si>
-    <t>Nome: "Leticia"
-Email: "leticia.analista@evt.com"
-Cargo: "ANALISTA"
-CPF: "95234881040"
-Departamento: "RH"
-Senha: "123456789"</t>
-  </si>
-  <si>
     <t>Gerente não deve ser capaz de editar um funcionário utilizando um CPF já registrado</t>
   </si>
   <si>
     <t>Dado que o gerente está logado no sistema	
 Quando o gerente tenta editar um funcionário existente com uma senha inválida	
 Então deve aparecer uma mensagem "A senha deve ter no mínimo 6 caracteres"</t>
-  </si>
-  <si>
-    <t>Nome: "Leticia"
-Email: "leticia.analista@evt.com"
-Cargo: "ANALISTA"
-CPF: "95234881040"
-Departamento: "RH"
-Senha: "222"</t>
   </si>
   <si>
     <t>Gerente não deve ser capaz de editar um funcionário utilizando uma senha inválida</t>
@@ -1270,12 +1179,6 @@
     <t>Exclusão de Local existente</t>
   </si>
   <si>
-    <t>Nome: "Auditório Principal"
-CEP: "01310025"
-Número: 102
-Capacidade: 160</t>
-  </si>
-  <si>
     <t>Edição de Local existente</t>
   </si>
   <si>
@@ -1302,11 +1205,6 @@
   </si>
   <si>
     <t>Dado que o funcionário está logado no sistema.
-Quando o funcionário tenta cadastrar um local com CEP inválido
-Então a API retorna mensagem de erro informando que o CEP é inválido</t>
-  </si>
-  <si>
-    <t>Dado que o funcionário está logado no sistema.
 Quando o funcionário tenta cadastrar um local que já existe.
 Então a API retorna mensagem de erro informando que o local já existe</t>
   </si>
@@ -1362,12 +1260,6 @@
     <t>Edicao de local existente com capacidade invalida</t>
   </si>
   <si>
-    <t>Nome: "Auditório Principal"
-CEP: "01310025"
-Número: 102
-Capacidade: -2</t>
-  </si>
-  <si>
     <t>Não deve ser possível editar um local com capacidade inválida</t>
   </si>
   <si>
@@ -1398,12 +1290,6 @@
 Então o sistema deve retornar a mensagem "Já existe um local com esse nome"</t>
   </si>
   <si>
-    <t>Nome: "Auditório Principal"
-CEP: "2"
-Número: 102
-Capacidade: 24</t>
-  </si>
-  <si>
     <t>Edicao de local existente com cep inexistente</t>
   </si>
   <si>
@@ -1468,26 +1354,6 @@
     <t>Dado que o organizador está autenticado na plataforma.
 Quando o organizador cria um novo evento não remoto com os detalhes necessários
 Então o evento deve ser criado com sucesso e aparecer na lista de eventos.</t>
-  </si>
-  <si>
-    <t>Tipo: PRESENCIAL
-Estado: ABERTO
-Data: 01/12/2025 09:00
-Descricao: Workshop de liderança
-Titulo: Workshop de Liderança
-Vagas: 30
-Local: Auditório Central
-Palestrante: Carlos Gerente</t>
-  </si>
-  <si>
-    <t>Tipo: PRESENCIAL
-Estado: ABERTO
-Data: 01/12/2025 09:00
-Descricao: Workshop de liderança
-Titulo: Workshop de Liderança 2
-Vagas: 30
-Local: Auditório Central
-Palestrante: Carlos Gerente</t>
   </si>
   <si>
     <t>Dado que o organizador está autenticado na plataforma.
@@ -1524,16 +1390,6 @@
 Palestrante: Carlos Gerente</t>
   </si>
   <si>
-    <t>Tipo: HÍBRIDO
-Título: ""
-Estado: ABERTO
-Data: 10/12/2025 15:00
-Descrição: Tech Conference 2025
-Vagas: 200
-Local: Auditório Secundário
-Palestrante: João Palestrante</t>
-  </si>
-  <si>
     <t>Tipo: PRESENCIAL
 Estado: ABERTO
 Data: 18/12/2025 14:00
@@ -1563,21 +1419,6 @@
 Então deve aparecer uma mensagem de erro informando que o campo de local é obrigatório"O local é obrigatório para eventos presenciais"</t>
   </si>
   <si>
-    <t>Título: "Reunião Anual"
-Data: "2025-10-15"
-Vagas: -10 (número negativo)
-Local: "Sala de Conferências"
-Descrição: "Reunião para discutir resultados."
-Tipo de Evento: "presencial"
-Palestrante: "Enrico Viscondi"Tipo: "PRESENCIAL"
-Título: "Reunião semestral" 
-Descrição: "Reunião semestral"
-Data: "2025-12-01 09:30:00"
-Vagas: -40
-Local: 1
-Palestrante: 1</t>
-  </si>
-  <si>
     <t>Sistema não deve aceitar mais inscrições  em um evento cujas vagas foram preenchidas</t>
   </si>
   <si>
@@ -2012,14 +1853,314 @@
 </t>
   </si>
   <si>
-    <t>b</t>
+    <t>Nome: Visitante 12
+E-mail: visit12@evt.com
+senha: 123456
+cpf:18951445070</t>
+  </si>
+  <si>
+    <t>Nome: Visitante 1
+E-mail: visit1@evt.com
+senha: 123456
+cpf:98686006000</t>
+  </si>
+  <si>
+    <t>mf01</t>
+  </si>
+  <si>
+    <t>(https://github.com/LindmanBassi/EvT---Eventos-Tech/tree/main/4.Teste)</t>
+  </si>
+  <si>
+    <t>Ao estar logado como gerente e clicar no botão "Editar" para tentar editar um funcionário existente, o formulário no topo da página é modificado para atualizar funcionário, mas o usuário não é automaticamente direconado para cima</t>
+  </si>
+  <si>
+    <t>Bug Id/melhoria</t>
+  </si>
+  <si>
+    <t>Melhoria</t>
+  </si>
+  <si>
+    <t>Ao atualizar o cargo de um funcionário existente o sistema não permite atualizações(ARRUMADO)</t>
+  </si>
+  <si>
+    <t>Nome: "Leticia"
+Email: "leticia.analista@evt.com"
+Cargo: "COORDENADOR"
+CPF: "95234881040"
+Departamento: "RH"
+Senha: "222"</t>
+  </si>
+  <si>
+    <t>Nome: "Leticia"
+Email: "leticia.analista.com"
+Cargo: "COORDENADOR"
+CPF: "46962686080"
+Departamento: "RH"
+Senha: "123456"</t>
+  </si>
+  <si>
+    <t>Nome: "Leticia"
+Email: "leticia.analista@evt.com"
+Cargo: "COORDENADOR"
+CPF: "123"
+Departamento: "RH"
+Senha: "123456"</t>
+  </si>
+  <si>
+    <t>Nome: "Leticia"
+Email: "leticia.analista@evt.com"
+Cargo: "COORDENADOR"
+CPF: "95234881040"
+Departamento: "RH"
+Senha: "123456"</t>
+  </si>
+  <si>
+    <t>Nome: "Leticia"
+Email: "juliana@evt.com"
+Cargo: "COORDENADOR"
+CPF: "46962686080"
+Departamento: "RH"
+Senha: "123456"</t>
+  </si>
+  <si>
+    <t>Não há botão listar, porém todos os funcionários já são listados automaticamnte na página</t>
+  </si>
+  <si>
+    <t>Não é possível listar funcionários por cargo</t>
+  </si>
+  <si>
+    <t>mf02</t>
+  </si>
+  <si>
+    <t>Listar por cargo</t>
+  </si>
+  <si>
+    <t>Nome: "Auditório Principal"
+CEP: "01310000"
+Número: 1000
+Capacidade: 150</t>
+  </si>
+  <si>
+    <t>O front não está exibindo a mensagem informando que já existe um local com esse nome</t>
+  </si>
+  <si>
+    <t>Nome: "Carangueijo"
+CEP: "33915015"
+Número: 10
+Capacidade: 160</t>
+  </si>
+  <si>
+    <t>Nome: ""
+CEP: "65608500"
+Número: 500
+Capacidade: 50</t>
+  </si>
+  <si>
+    <t>O front não está exibindo a mensagem informando que o nome é obrigatório</t>
+  </si>
+  <si>
+    <t>O front não está exibindo a mensagem informando que o cep é inválido</t>
+  </si>
+  <si>
+    <t>Dado que o funcionário está logado no sistema.
+Quando o funcionário tenta cadastrar um local com CEP inválido
+Então a API retorna mensagem de erro informando "O CEP deve estar no formato 00000-000."</t>
+  </si>
+  <si>
+    <t>O front não está exibindo a mensagem informando que a capacidade deve ser maior que 0</t>
+  </si>
+  <si>
+    <t>Front não está exibindo a mensagem que o número é obrigatório</t>
+  </si>
+  <si>
+    <t>Front não está exibindo a mensagem que o CEP é obrigatório</t>
+  </si>
+  <si>
+    <t>Nome: "Auditório Central"
+CEP: "2"
+Número: 102
+Capacidade: 24</t>
+  </si>
+  <si>
+    <t>Nome: "Auditório Central"
+CEP: "01310025"
+Número: 102
+Capacidade: -2</t>
+  </si>
+  <si>
+    <t>O front não está exibindo a mensagem informando que o cep deve estar no formato correto</t>
+  </si>
+  <si>
+    <t>O front não está exibindo a mensagem informando que o cep não foi encontradocorreto</t>
+  </si>
+  <si>
+    <t>Não há botão listar, todos os locais já são listados por padrão</t>
+  </si>
+  <si>
+    <t>Não há opção para listar local específico</t>
+  </si>
+  <si>
+    <t>Nome: "Auditório Central"
+CEP: "01310025"
+Número: 102
+Capacidade: 160</t>
+  </si>
+  <si>
+    <t>Front não permite a edição</t>
+  </si>
+  <si>
+    <t>Front não permite e não mostra a mensagem de erro</t>
+  </si>
+  <si>
+    <t>Tipo: PRESENCIAL
+Estado: ABERTO
+Data: 01/12/2025 09:00
+Descricao: Workshop
+Titulo: Workshop
+Vagas: 30
+Local: Auditório Central
+Palestrante: Carlos Gerente</t>
+  </si>
+  <si>
+    <t>Tipo: HÍBRIDO
+Título: ""
+Estado: ABERTO
+Data: 10/12/2025 15:00
+Descrição: Tech Conference 2025
+Vagas: 200
+Local: Auditório Sul
+Palestrante: João Palestrante</t>
+  </si>
+  <si>
+    <t>Front trata descrição como obrigatório, senod que no back está como opcional</t>
+  </si>
+  <si>
+    <t>Front trata palestrante como obrigatório, senod que no back é opcional</t>
+  </si>
+  <si>
+    <t>Local: "Sala de Conferência
+Tipo: "PRESENCIAL"
+Título: "Reunião semestral" 
+Descrição: "Reunião semestral"
+Data: "2025-12-01 09:30:00"
+Vagas: -40
+Local: 1
+Palestrante: 1</t>
+  </si>
+  <si>
+    <t>Front não mostra a opção de local para eventos remotos</t>
+  </si>
+  <si>
+    <t>estado é criado automaticamente</t>
+  </si>
+  <si>
+    <t>Front não permite atualizar um evento. A mensagem que aparece é que o título já está cadastrado</t>
+  </si>
+  <si>
+    <t>Não é possível listar um evento específico</t>
+  </si>
+  <si>
+    <t>Todos os eventos já são listados por padrão</t>
+  </si>
+  <si>
+    <t>id: 262626</t>
+  </si>
+  <si>
+    <t>Sistema dá erro 204 e não há o tratamento correto para o erro</t>
+  </si>
+  <si>
+    <t>Tipo: REMOTO
+Estado: ABERTO
+Data: 20/11/2025 22:00
+Descricao: Palestra sobre produtividade
+Titulo: Alta Performance
+Vagas: 100
+Palestrante: Carlos Gerente</t>
+  </si>
+  <si>
+    <t>Não é possível editar um evento existente (front)</t>
+  </si>
+  <si>
+    <t>Sistema mostra uma mensagem que o e-mail já existe</t>
+  </si>
+  <si>
+    <t>Erro 403</t>
+  </si>
+  <si>
+    <t>status 400. Exibe mensagem de senha mínima</t>
+  </si>
+  <si>
+    <t>ml1</t>
+  </si>
+  <si>
+    <t>ml2</t>
+  </si>
+  <si>
+    <t>ml3</t>
+  </si>
+  <si>
+    <t>ml4</t>
+  </si>
+  <si>
+    <t>ml5</t>
+  </si>
+  <si>
+    <t>ml6</t>
+  </si>
+  <si>
+    <t>ml7</t>
+  </si>
+  <si>
+    <t>ml8</t>
+  </si>
+  <si>
+    <t>ml9</t>
+  </si>
+  <si>
+    <t>ml10</t>
+  </si>
+  <si>
+    <t>ml11</t>
+  </si>
+  <si>
+    <t>ml12</t>
+  </si>
+  <si>
+    <t>ml13</t>
+  </si>
+  <si>
+    <t>ml14</t>
+  </si>
+  <si>
+    <t>ml15</t>
+  </si>
+  <si>
+    <t>me1</t>
+  </si>
+  <si>
+    <t>me2</t>
+  </si>
+  <si>
+    <t>me3</t>
+  </si>
+  <si>
+    <t>me4</t>
+  </si>
+  <si>
+    <t>me5</t>
+  </si>
+  <si>
+    <t>me6</t>
+  </si>
+  <si>
+    <t>me7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="35" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2244,6 +2385,23 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2657,7 +2815,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -2673,8 +2831,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2763,22 +2922,31 @@
     <xf numFmtId="0" fontId="32" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2805,22 +2973,24 @@
     <xf numFmtId="0" fontId="23" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="15" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
-    <cellStyle name="Bom" xfId="1"/>
+  <cellStyles count="16">
+    <cellStyle name="Bom" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Cálculo" xfId="2" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="3"/>
+    <cellStyle name="Célula de Verificação" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Entrada" xfId="4" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="5" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="6"/>
+    <cellStyle name="Neutra" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="7"/>
+    <cellStyle name="Normal 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Nota" xfId="8" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Porcentagem 2" xfId="9"/>
+    <cellStyle name="Porcentagem" xfId="15" builtinId="5"/>
+    <cellStyle name="Porcentagem 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Ruim" xfId="5" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="11" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título 5" xfId="13"/>
+    <cellStyle name="Título 5" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Total" xfId="14" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3251,53 +3421,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="4.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.1796875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="23"/>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="24"/>
       <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="24"/>
       <c r="C4" s="18" t="s">
         <v>0</v>
@@ -3316,7 +3486,7 @@
       </c>
       <c r="L4" s="25"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="24"/>
       <c r="C5" s="20" t="s">
         <v>23</v>
@@ -3324,12 +3494,14 @@
       <c r="D5" s="21">
         <v>11</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="L5" s="25"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="24"/>
       <c r="C6" s="20" t="s">
         <v>24</v>
@@ -3337,12 +3509,14 @@
       <c r="D6" s="21">
         <v>10</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="L6" s="25"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="24"/>
       <c r="C7" s="20" t="s">
         <v>25</v>
@@ -3350,12 +3524,16 @@
       <c r="D7" s="21">
         <v>23</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="F7" s="19">
+        <v>2</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
       <c r="H7" s="19"/>
       <c r="L7" s="25"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="24"/>
       <c r="C8" s="20" t="s">
         <v>26</v>
@@ -3363,12 +3541,14 @@
       <c r="D8" s="21">
         <v>21</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="19">
+        <v>15</v>
+      </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="L8" s="25"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
       <c r="C9" s="20" t="s">
         <v>27</v>
@@ -3376,51 +3556,59 @@
       <c r="D9" s="21">
         <v>28</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="19">
+        <v>5</v>
+      </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="24"/>
       <c r="C10" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="21">
-        <v>4</v>
-      </c>
-      <c r="F10" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="L10" s="25"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="24"/>
       <c r="C11" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="21">
-        <v>4</v>
-      </c>
-      <c r="F11" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0</v>
+      </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="L11" s="25"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="24"/>
       <c r="C12" s="20" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="D12" s="21">
         <v>8</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="19">
+        <v>6</v>
+      </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="L12" s="25"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="24"/>
       <c r="C13" s="22" t="s">
         <v>13</v>
@@ -3431,19 +3619,19 @@
       <c r="H13" s="17"/>
       <c r="L13" s="25"/>
     </row>
-    <row r="14" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="24"/>
       <c r="C14" s="21">
-        <f>COUNTA(C5:C11)</f>
-        <v>7</v>
+        <f>COUNTA(C5:C12)</f>
+        <v>8</v>
       </c>
       <c r="D14" s="21">
         <f>SUM(D5:D12)</f>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F14" s="3">
-        <f>SUM(F5:F11)</f>
-        <v>0</v>
+        <f>SUM(F5:F12)</f>
+        <v>28</v>
       </c>
       <c r="G14" s="3">
         <f>SUM(G5:G11)</f>
@@ -3455,11 +3643,12 @@
       </c>
       <c r="I14" s="26">
         <f>SUM(F14:H14)</f>
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J14" s="55"/>
       <c r="L14" s="25"/>
     </row>
-    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
@@ -3484,82 +3673,82 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="8" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-    </row>
-    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="50">
         <v>8</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-    </row>
-    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>433</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="14" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="43.5" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
@@ -3585,30 +3774,36 @@
         <v>19</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>1</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>445</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+        <v>420</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
       <c r="I9" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -3626,27 +3821,33 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>446</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+        <v>421</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
       <c r="I10" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -3664,145 +3865,179 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>447</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+        <v>422</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
       <c r="I11" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>4</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>448</v>
-      </c>
-      <c r="F12" s="12"/>
+        <v>423</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>494</v>
+      </c>
       <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
       <c r="I12" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>5</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>449</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+        <v>424</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
       <c r="I13" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>6</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>450</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+        <v>425</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
       <c r="I14" s="43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>7</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>451</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+        <v>426</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
+      <c r="H15" s="12">
+        <v>1</v>
+      </c>
       <c r="I15" s="43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>8</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+        <v>428</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1</v>
+      </c>
       <c r="I16" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -3813,34 +4048,36 @@
       <c r="H17" s="41"/>
       <c r="I17" s="42"/>
     </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="33"/>
       <c r="C20" s="32"/>
-      <c r="D20" s="31"/>
+      <c r="D20" s="31" t="s">
+        <v>445</v>
+      </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -3852,36 +4089,37 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:C4"/>
   </mergeCells>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3895,73 +4133,73 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7265625" style="4" customWidth="1"/>
     <col min="7" max="7" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="8" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-    </row>
-    <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
+    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="50">
         <v>11</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-    </row>
-    <row r="3" spans="1:25" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+    </row>
+    <row r="3" spans="1:25" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-    </row>
-    <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+    </row>
+    <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -3971,7 +4209,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
@@ -3997,10 +4235,10 @@
         <v>19</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="99.75" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="84" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -4008,19 +4246,21 @@
         <v>34</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>211</v>
+        <v>442</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
       <c r="I9" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -4038,7 +4278,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="1:25" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="70.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>2</v>
       </c>
@@ -4046,19 +4286,21 @@
         <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>178</v>
+        <v>443</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
       <c r="I10" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -4076,7 +4318,7 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
     </row>
-    <row r="11" spans="1:25" ht="114" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="84" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>3</v>
       </c>
@@ -4087,19 +4329,21 @@
         <v>39</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
       <c r="I11" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="85.5" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="70" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>4</v>
       </c>
@@ -4107,22 +4351,24 @@
         <v>45</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>41</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
       <c r="I12" s="34" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="85.5" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="70" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>5</v>
       </c>
@@ -4130,22 +4376,24 @@
         <v>46</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
       <c r="I13" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="85.5" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="70" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>6</v>
       </c>
@@ -4153,22 +4401,24 @@
         <v>47</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
       <c r="I14" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="85.5" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="70" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>7</v>
       </c>
@@ -4176,142 +4426,154 @@
         <v>37</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="H15" s="12">
+        <v>1</v>
+      </c>
       <c r="I15" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>8</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="H16" s="12">
+        <v>1</v>
+      </c>
       <c r="I16" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>9</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
       <c r="I17" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>10</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="H18" s="12">
+        <v>1</v>
+      </c>
       <c r="I18" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>11</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="H19" s="12">
+        <v>1</v>
+      </c>
       <c r="I19" s="37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="33"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="31"/>
+      <c r="D27" s="31" t="s">
+        <v>445</v>
+      </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -4334,73 +4596,73 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7265625" style="4" customWidth="1"/>
     <col min="7" max="7" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="8" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-    </row>
-    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="50">
         <v>10</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-    </row>
-    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -4410,7 +4672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
@@ -4436,10 +4698,10 @@
         <v>19</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -4455,9 +4717,11 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
       <c r="I9" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -4475,7 +4739,7 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
@@ -4486,16 +4750,18 @@
         <v>60</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>61</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
       <c r="I10" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -4513,7 +4779,7 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
@@ -4521,22 +4787,24 @@
         <v>53</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>62</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
       <c r="I11" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>4</v>
       </c>
@@ -4544,22 +4812,24 @@
         <v>54</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>62</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
       <c r="I12" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>5</v>
       </c>
@@ -4567,22 +4837,24 @@
         <v>55</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>62</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
       <c r="I13" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="98" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>6</v>
       </c>
@@ -4590,7 +4862,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>64</v>
@@ -4600,12 +4872,14 @@
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
       <c r="I14" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>7</v>
       </c>
@@ -4613,7 +4887,7 @@
         <v>57</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>65</v>
@@ -4623,12 +4897,14 @@
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="H15" s="12">
+        <v>1</v>
+      </c>
       <c r="I15" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>8</v>
       </c>
@@ -4639,19 +4915,21 @@
         <v>66</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>62</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="H16" s="12">
+        <v>1</v>
+      </c>
       <c r="I16" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="84" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>9</v>
       </c>
@@ -4669,62 +4947,68 @@
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
       <c r="I17" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="84" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>10</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="H18" s="12">
+        <v>1</v>
+      </c>
       <c r="I18" s="37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="33"/>
       <c r="C24" s="32"/>
-      <c r="D24" s="31"/>
+      <c r="D24" s="31" t="s">
+        <v>445</v>
+      </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -4747,83 +5031,83 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7265625" style="4" customWidth="1"/>
     <col min="7" max="7" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="8" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-    </row>
-    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="50">
         <v>23</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-    </row>
-    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
@@ -4849,10 +5133,10 @@
         <v>19</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -4860,19 +5144,21 @@
         <v>70</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
       <c r="I9" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -4890,7 +5176,7 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
@@ -4898,19 +5184,21 @@
         <v>71</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>76</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
       <c r="I10" s="12" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -4928,7 +5216,7 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="98" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
@@ -4936,22 +5224,24 @@
         <v>72</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
       <c r="I11" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="114" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="98" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>4</v>
       </c>
@@ -4962,180 +5252,200 @@
         <v>77</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
       <c r="I12" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="98" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>5</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
       <c r="I13" s="34" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="98" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>6</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
       <c r="I14" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="98" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>7</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="H15" s="12">
+        <v>1</v>
+      </c>
       <c r="I15" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="98" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>8</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="H16" s="12">
+        <v>1</v>
+      </c>
       <c r="I16" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>9</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
       <c r="I17" s="34" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>10</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="H18" s="12">
+        <v>1</v>
+      </c>
       <c r="I18" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="84" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>11</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+        <v>82</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>449</v>
+      </c>
+      <c r="G19" s="12">
+        <v>1</v>
+      </c>
+      <c r="H19" s="12">
+        <v>2</v>
+      </c>
       <c r="I19" s="34" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="84" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>12</v>
       </c>
@@ -5146,272 +5456,302 @@
         <v>78</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="H20" s="12">
+        <v>1</v>
+      </c>
       <c r="I20" s="36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="84" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>13</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="H21" s="12">
+        <v>1</v>
+      </c>
       <c r="I21" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="84" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>14</v>
       </c>
       <c r="B22" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="32" t="s">
         <v>265</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>277</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="H22" s="12">
+        <v>1</v>
+      </c>
       <c r="I22" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>15</v>
       </c>
       <c r="B23" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="C23" s="32" t="s">
-        <v>278</v>
-      </c>
       <c r="D23" s="31" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="H23" s="12">
+        <v>1</v>
+      </c>
       <c r="I23" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="84" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>16</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>281</v>
+        <v>451</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="H24" s="12">
+        <v>1</v>
+      </c>
       <c r="I24" s="43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="84" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>17</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>284</v>
+        <v>452</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="H25" s="12">
+        <v>1</v>
+      </c>
       <c r="I25" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>18</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>287</v>
+        <v>454</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="H26" s="12">
+        <v>1</v>
+      </c>
       <c r="I26" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>19</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>290</v>
+        <v>453</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="H27" s="12">
+        <v>1</v>
+      </c>
       <c r="I27" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="114" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>20</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>293</v>
+        <v>450</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="H28" s="12">
+        <v>1</v>
+      </c>
       <c r="I28" s="43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="84" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>21</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="F29" s="12"/>
+        <v>281</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>455</v>
+      </c>
       <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="12">
+        <v>1</v>
+      </c>
       <c r="I29" s="36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>22</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+        <v>282</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="G30" s="12">
+        <v>1</v>
+      </c>
+      <c r="H30" s="12">
+        <v>1</v>
+      </c>
       <c r="I30" s="36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>23</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="H31" s="12">
+        <v>1</v>
+      </c>
       <c r="I31" s="36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="38"/>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
@@ -5422,37 +5762,74 @@
       <c r="H32" s="41"/>
       <c r="I32" s="42"/>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>231</v>
+        <v>447</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="140" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B35" s="33">
+        <v>11</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>446</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="140" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B36" s="33">
+        <v>22</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>446</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -5473,83 +5850,83 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7265625" style="4" customWidth="1"/>
     <col min="7" max="7" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="8" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-    </row>
-    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="50">
         <v>21</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-    </row>
-    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
@@ -5575,30 +5952,32 @@
         <v>19</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>1</v>
       </c>
       <c r="B9" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="E9" s="32" t="s">
         <v>93</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>94</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
       <c r="I9" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -5616,27 +5995,33 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="E10" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
       <c r="I10" s="34" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -5654,474 +6039,876 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="98" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>315</v>
+        <v>465</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+        <v>96</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
       <c r="I11" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>4</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="F12" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
       <c r="I12" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>5</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="E13" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="F13" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
       <c r="I13" s="34" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>6</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>308</v>
+        <v>475</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+        <v>101</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
       <c r="I14" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>7</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="D15" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>103</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>104</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="H15" s="12">
+        <v>1</v>
+      </c>
       <c r="I15" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>8</v>
       </c>
       <c r="B16" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="D16" s="31" t="s">
+      <c r="E16" s="32" t="s">
         <v>106</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>107</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="H16" s="12">
+        <v>1</v>
+      </c>
       <c r="I16" s="36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="84" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>9</v>
       </c>
       <c r="B17" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="F17" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
       <c r="I17" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="84" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>10</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+        <v>289</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="G18" s="12">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1</v>
+      </c>
       <c r="I18" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="84" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>11</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+        <v>296</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="G19" s="12">
+        <v>1</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1</v>
+      </c>
       <c r="I19" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>12</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+        <v>307</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1</v>
+      </c>
       <c r="I20" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>13</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+        <v>308</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1</v>
+      </c>
       <c r="I21" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>14</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>329</v>
+        <v>470</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+        <v>310</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="G22" s="12">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12">
+        <v>1</v>
+      </c>
       <c r="I22" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>15</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>341</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+        <v>320</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="G23" s="12">
+        <v>1</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1</v>
+      </c>
       <c r="I23" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>16</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>337</v>
+        <v>469</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+        <v>321</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="G24" s="12">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1</v>
+      </c>
       <c r="I24" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>17</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+        <v>322</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="G25" s="12">
+        <v>1</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1</v>
+      </c>
       <c r="I25" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="84" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>18</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="H26" s="12">
+        <v>1</v>
+      </c>
       <c r="I26" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="70" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>19</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>351</v>
-      </c>
-      <c r="F27" s="12"/>
+        <v>330</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>473</v>
+      </c>
       <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="H27" s="12">
+        <v>1</v>
+      </c>
       <c r="I27" s="43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="84" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>20</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>352</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+        <v>331</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="G28" s="12">
+        <v>1</v>
+      </c>
+      <c r="H28" s="12">
+        <v>1</v>
+      </c>
       <c r="I28" s="37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>21</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="12">
+        <v>1</v>
+      </c>
       <c r="I29" s="37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="31"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B34" s="33">
+        <v>2</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>445</v>
+      </c>
       <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="F34" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="B35" s="33">
+        <v>3</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B36" s="33">
+        <v>4</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B37" s="33">
+        <v>5</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B38" s="33">
+        <v>6</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B39" s="33">
+        <v>9</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B40" s="33">
+        <v>10</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B41" s="33">
+        <v>11</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B42" s="33">
+        <v>12</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B43" s="33">
+        <v>13</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B44" s="33">
+        <v>14</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B45" s="33">
+        <v>15</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B46" s="33">
+        <v>16</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B47" s="33">
+        <v>17</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B48" s="33">
+        <v>20</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -6142,83 +6929,83 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7265625" style="4" customWidth="1"/>
     <col min="7" max="7" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="8" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-    </row>
-    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="50">
         <v>28</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-    </row>
-    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="29.25" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
@@ -6244,30 +7031,32 @@
         <v>19</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="114" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="112" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>1</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>356</v>
+        <v>478</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
       <c r="I9" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -6285,27 +7074,33 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="E10" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
       <c r="I10" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -6323,635 +7118,849 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="98" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="E11" s="32" t="s">
         <v>117</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>118</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
       <c r="I11" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="128.25" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="112" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>4</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="D12" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="32" t="s">
         <v>120</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>121</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
       <c r="I12" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="114" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="112" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>5</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="E13" s="32" t="s">
         <v>122</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>358</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>123</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
       <c r="I13" s="34" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="98" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>6</v>
       </c>
       <c r="B14" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" s="32" t="s">
         <v>124</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>125</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
       <c r="I14" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="114" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="112" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>7</v>
       </c>
       <c r="B15" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>126</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>127</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="H15" s="12">
+        <v>1</v>
+      </c>
       <c r="I15" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="128.25" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="112" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>8</v>
       </c>
       <c r="B16" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="32" t="s">
         <v>128</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>129</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="H16" s="12">
+        <v>1</v>
+      </c>
       <c r="I16" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>9</v>
       </c>
       <c r="B17" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>130</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>131</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
       <c r="I17" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>10</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+        <v>207</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="G18" s="12">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1</v>
+      </c>
       <c r="I18" s="36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>11</v>
       </c>
       <c r="B19" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="D19" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="F19" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="G19" s="12">
+        <v>1</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1</v>
+      </c>
       <c r="I19" s="36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="126" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>12</v>
       </c>
       <c r="B20" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="D20" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="E20" s="32" t="s">
         <v>136</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>364</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>137</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="H20" s="12">
+        <v>1</v>
+      </c>
       <c r="I20" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="185.25" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>13</v>
       </c>
       <c r="B21" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="D21" s="46" t="s">
+        <v>482</v>
+      </c>
+      <c r="E21" s="32" t="s">
         <v>139</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>140</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="H21" s="12">
+        <v>1</v>
+      </c>
       <c r="I21" s="43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>14</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="H22" s="12">
+        <v>1</v>
+      </c>
       <c r="I22" s="43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>15</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="H23" s="12">
+        <v>1</v>
+      </c>
       <c r="I23" s="43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="114" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>16</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="H24" s="12">
+        <v>1</v>
+      </c>
       <c r="I24" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>17</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="F25" s="12"/>
+        <v>349</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>483</v>
+      </c>
       <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="H25" s="12">
+        <v>1</v>
+      </c>
       <c r="I25" s="36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>18</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>378</v>
-      </c>
-      <c r="F26" s="12"/>
+        <v>353</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>484</v>
+      </c>
       <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="H26" s="12">
+        <v>1</v>
+      </c>
       <c r="I26" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>19</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="H27" s="12">
+        <v>1</v>
+      </c>
       <c r="I27" s="43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>20</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="H28" s="12">
+        <v>1</v>
+      </c>
       <c r="I28" s="36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="114" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="112" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>21</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="12">
+        <v>1</v>
+      </c>
       <c r="I29" s="36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="112" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>22</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+        <v>368</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="G30" s="12">
+        <v>1</v>
+      </c>
+      <c r="H30" s="12">
+        <v>1</v>
+      </c>
       <c r="I30" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="114" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="112" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>23</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="H31" s="12">
+        <v>1</v>
+      </c>
       <c r="I31" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>24</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="H32" s="12">
+        <v>1</v>
+      </c>
       <c r="I32" s="43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>25</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="H33" s="12">
+        <v>1</v>
+      </c>
       <c r="I33" s="43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>26</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="F34" s="12"/>
+        <v>386</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>487</v>
+      </c>
       <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="H34" s="12">
+        <v>1</v>
+      </c>
       <c r="I34" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>27</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>346</v>
+        <v>488</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>408</v>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+        <v>383</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="G35" s="12">
+        <v>1</v>
+      </c>
+      <c r="H35" s="12">
+        <v>1</v>
+      </c>
       <c r="I35" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>28</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="F36" s="12"/>
+        <v>390</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>486</v>
+      </c>
       <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="H36" s="12">
+        <v>1</v>
+      </c>
       <c r="I36" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="31"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B42" s="33">
+        <v>2</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>445</v>
+      </c>
       <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
+      <c r="F42" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B43" s="33">
+        <v>10</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B44" s="33">
+        <v>11</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B45" s="33">
+        <v>17</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B46" s="33">
+        <v>18</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B47" s="33">
+        <v>22</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B48" s="33">
+        <v>27</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -6961,6 +7970,7 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:C4"/>
   </mergeCells>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -6971,83 +7981,83 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7265625" style="4" customWidth="1"/>
     <col min="7" max="7" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="8" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-    </row>
-    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
-        <v>4</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-    </row>
-    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="50">
+        <v>3</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
@@ -7073,10 +8083,10 @@
         <v>19</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -7084,17 +8094,19 @@
         <v>20</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
       <c r="I9" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -7112,27 +8124,29 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="E10" s="32" t="s">
         <v>149</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>150</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
       <c r="I10" s="12" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -7150,81 +8164,62 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="98" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>4</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="34" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="28" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="D16" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -7244,86 +8239,83 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7265625" style="4" customWidth="1"/>
     <col min="7" max="7" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="8" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-    </row>
-    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
-        <v>4</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-    </row>
-    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="4" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="50">
+        <v>3</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
@@ -7349,30 +8341,32 @@
         <v>19</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="85.5" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="84" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>1</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
       <c r="I9" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -7390,25 +8384,27 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="56" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="32" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
       <c r="I10" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -7426,81 +8422,64 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
       <c r="I11" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>4</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C18" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="D17" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
